--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业投资收益.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业投资收益.xlsx
@@ -1907,7 +1907,7 @@
         <v>56.4</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I3" t="n">
         <v>0.1</v>
@@ -1970,7 +1970,7 @@
         <v>67.59999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="AD3" t="n">
         <v>2.7</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.8</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>-100</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.9999999999999989</v>
+        <v>0.09999999999999876</v>
       </c>
       <c r="AS3" t="n">
         <v>4.6</v>
@@ -2051,7 +2051,7 @@
         <v>-66.7</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.6999999999999997</v>
+        <v>0.2999999999999993</v>
       </c>
       <c r="BE3" t="n">
         <v>4.4</v>
@@ -2060,7 +2060,7 @@
         <v>-29</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="BH3" t="n">
         <v>5.8</v>
@@ -2087,7 +2087,7 @@
         <v>-54.5</v>
       </c>
       <c r="BP3" t="n">
-        <v>3.299999999999999</v>
+        <v>2.999999999999998</v>
       </c>
       <c r="BQ3" t="n">
         <v>21.6</v>
@@ -2123,7 +2123,7 @@
         <v>47.8</v>
       </c>
       <c r="CB3" t="n">
-        <v>27</v>
+        <v>25.2</v>
       </c>
       <c r="CC3" t="n">
         <v>44.4</v>
@@ -2150,7 +2150,7 @@
         <v>44.8</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="CL3" t="n">
         <v>-0.6</v>
@@ -2231,7 +2231,7 @@
         <v>22.9</v>
       </c>
       <c r="DL3" t="n">
-        <v>31</v>
+        <v>30.2</v>
       </c>
       <c r="DM3" t="n">
         <v>10</v>
@@ -2267,7 +2267,7 @@
         <v>-80</v>
       </c>
       <c r="DX3" t="n">
-        <v>18.8</v>
+        <v>12.8</v>
       </c>
       <c r="DY3" t="n">
         <v>10.9</v>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.400000000000002</v>
+        <v>0.800000000000002</v>
       </c>
       <c r="C4" t="n">
         <v>48</v>
@@ -2445,7 +2445,7 @@
         <v>296.7</v>
       </c>
       <c r="E4" t="n">
-        <v>26.9</v>
+        <v>24.8</v>
       </c>
       <c r="F4" t="n">
         <v>10.9</v>
@@ -2454,7 +2454,7 @@
         <v>81.7</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="I4" t="n">
         <v>0.1</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>12</v>
+        <v>5.799999999999999</v>
       </c>
       <c r="O4" t="n">
         <v>16</v>
@@ -2490,7 +2490,7 @@
         <v>2.3</v>
       </c>
       <c r="T4" t="n">
-        <v>16.2</v>
+        <v>7.399999999999995</v>
       </c>
       <c r="U4" t="n">
         <v>56.7</v>
@@ -2508,7 +2508,7 @@
         <v>-39.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.3</v>
+        <v>6</v>
       </c>
       <c r="AA4" t="n">
         <v>38</v>
@@ -2526,7 +2526,7 @@
         <v>-15.4</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AG4" t="n">
         <v>6.1</v>
@@ -2562,7 +2562,7 @@
         <v>-100</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.100000000000001</v>
+        <v>0.1000000000000021</v>
       </c>
       <c r="AS4" t="n">
         <v>6</v>
@@ -2571,7 +2571,7 @@
         <v>30.4</v>
       </c>
       <c r="AU4" t="n">
-        <v>10.8</v>
+        <v>8.4</v>
       </c>
       <c r="AV4" t="n">
         <v>22.1</v>
@@ -2598,7 +2598,7 @@
         <v>-100</v>
       </c>
       <c r="BD4" t="n">
-        <v>5.699999999999999</v>
+        <v>5</v>
       </c>
       <c r="BE4" t="n">
         <v>5.9</v>
@@ -2607,7 +2607,7 @@
         <v>-19.2</v>
       </c>
       <c r="BG4" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="BH4" t="n">
         <v>8.699999999999999</v>
@@ -2616,7 +2616,7 @@
         <v>200</v>
       </c>
       <c r="BJ4" t="n">
-        <v>110.4</v>
+        <v>33.50000000000003</v>
       </c>
       <c r="BK4" t="n">
         <v>231.4</v>
@@ -2643,7 +2643,7 @@
         <v>218.9</v>
       </c>
       <c r="BS4" t="n">
-        <v>4.600000000000001</v>
+        <v>3.800000000000001</v>
       </c>
       <c r="BT4" t="n">
         <v>16.9</v>
@@ -2688,7 +2688,7 @@
         <v>187.5</v>
       </c>
       <c r="CH4" t="n">
-        <v>5.200000000000001</v>
+        <v>4.700000000000001</v>
       </c>
       <c r="CI4" t="n">
         <v>38.3</v>
@@ -2706,7 +2706,7 @@
         <v>75</v>
       </c>
       <c r="CN4" t="n">
-        <v>2.700000000000001</v>
+        <v>0.600000000000001</v>
       </c>
       <c r="CO4" t="n">
         <v>18.5</v>
@@ -2724,7 +2724,7 @@
         <v>71.2</v>
       </c>
       <c r="CT4" t="n">
-        <v>15.90000000000001</v>
+        <v>15.20000000000001</v>
       </c>
       <c r="CU4" t="n">
         <v>102.8</v>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="DC4" t="n">
-        <v>5.600000000000001</v>
+        <v>3.900000000000002</v>
       </c>
       <c r="DD4" t="n">
         <v>23.3</v>
@@ -2760,7 +2760,7 @@
         <v>11</v>
       </c>
       <c r="DF4" t="n">
-        <v>5.899999999999999</v>
+        <v>3.799999999999998</v>
       </c>
       <c r="DG4" t="n">
         <v>37.2</v>
@@ -2832,7 +2832,7 @@
         <v>54.7</v>
       </c>
       <c r="ED4" t="n">
-        <v>3.300000000000001</v>
+        <v>2.800000000000001</v>
       </c>
       <c r="EE4" t="n">
         <v>14.6</v>
@@ -2983,7 +2983,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>121.8</v>
+        <v>117.4</v>
       </c>
       <c r="C5" t="n">
         <v>59.7</v>
@@ -3028,7 +3028,7 @@
         <v>-42.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>145.8</v>
+        <v>1.39999999999992</v>
       </c>
       <c r="R5" t="n">
         <v>1284.2</v>
@@ -3037,7 +3037,7 @@
         <v>-0.4</v>
       </c>
       <c r="T5" t="n">
-        <v>17.3</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="U5" t="n">
         <v>85</v>
@@ -3073,7 +3073,7 @@
         <v>-23.4</v>
       </c>
       <c r="AF5" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AG5" t="n">
         <v>15.8</v>
@@ -3082,7 +3082,7 @@
         <v>139.4</v>
       </c>
       <c r="AI5" t="n">
-        <v>243.6000000000001</v>
+        <v>89.20000000000022</v>
       </c>
       <c r="AJ5" t="n">
         <v>1604.9</v>
@@ -3091,7 +3091,7 @@
         <v>6.7</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="AM5" t="n">
         <v>0.7</v>
@@ -3100,7 +3100,7 @@
         <v>75</v>
       </c>
       <c r="AO5" t="n">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AP5" t="n">
         <v>0.1</v>
@@ -3127,7 +3127,7 @@
         <v>26.8</v>
       </c>
       <c r="AX5" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="AY5" t="n">
         <v>7.1</v>
@@ -3136,7 +3136,7 @@
         <v>121.9</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="BB5" t="n">
         <v>0.5</v>
@@ -3154,7 +3154,7 @@
         <v>-27.7</v>
       </c>
       <c r="BG5" t="n">
-        <v>3.100000000000001</v>
+        <v>0.7000000000000011</v>
       </c>
       <c r="BH5" t="n">
         <v>10.2</v>
@@ -3163,7 +3163,7 @@
         <v>52.2</v>
       </c>
       <c r="BJ5" t="n">
-        <v>136.3</v>
+        <v>25.90000000000001</v>
       </c>
       <c r="BK5" t="n">
         <v>374</v>
@@ -3172,7 +3172,7 @@
         <v>-20.6</v>
       </c>
       <c r="BM5" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="BN5" t="n">
         <v>1.8</v>
@@ -3181,7 +3181,7 @@
         <v>-40</v>
       </c>
       <c r="BP5" t="n">
-        <v>11.3</v>
+        <v>9.600000000000001</v>
       </c>
       <c r="BQ5" t="n">
         <v>44.6</v>
@@ -3190,7 +3190,7 @@
         <v>316.8</v>
       </c>
       <c r="BS5" t="n">
-        <v>5.899999999999999</v>
+        <v>1.299999999999997</v>
       </c>
       <c r="BT5" t="n">
         <v>20.1</v>
@@ -3199,7 +3199,7 @@
         <v>-10.7</v>
       </c>
       <c r="BV5" t="n">
-        <v>84.39999999999999</v>
+        <v>74.19999999999997</v>
       </c>
       <c r="BW5" t="n">
         <v>258.9</v>
@@ -3208,7 +3208,7 @@
         <v>40.7</v>
       </c>
       <c r="BY5" t="n">
-        <v>79.40000000000002</v>
+        <v>71.60000000000005</v>
       </c>
       <c r="BZ5" t="n">
         <v>228.6</v>
@@ -3226,7 +3226,7 @@
         <v>4.7</v>
       </c>
       <c r="CE5" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="CF5" t="n">
         <v>5.1</v>
@@ -3253,7 +3253,7 @@
         <v>-42.9</v>
       </c>
       <c r="CN5" t="n">
-        <v>6.699999999999999</v>
+        <v>3.999999999999998</v>
       </c>
       <c r="CO5" t="n">
         <v>24.4</v>
@@ -3262,7 +3262,7 @@
         <v>125.9</v>
       </c>
       <c r="CQ5" t="n">
-        <v>6.299999999999999</v>
+        <v>5.199999999999999</v>
       </c>
       <c r="CR5" t="n">
         <v>14.5</v>
@@ -3271,7 +3271,7 @@
         <v>130.2</v>
       </c>
       <c r="CT5" t="n">
-        <v>25.79999999999998</v>
+        <v>9.89999999999997</v>
       </c>
       <c r="CU5" t="n">
         <v>149.3</v>
@@ -3280,7 +3280,7 @@
         <v>22.5</v>
       </c>
       <c r="CW5" t="n">
-        <v>17.9</v>
+        <v>8.399999999999999</v>
       </c>
       <c r="CX5" t="n">
         <v>52.6</v>
@@ -3289,7 +3289,7 @@
         <v>4</v>
       </c>
       <c r="CZ5" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="DA5" t="n">
         <v>8.1</v>
@@ -3298,7 +3298,7 @@
         <v>88.40000000000001</v>
       </c>
       <c r="DC5" t="n">
-        <v>9</v>
+        <v>3.399999999999999</v>
       </c>
       <c r="DD5" t="n">
         <v>26.8</v>
@@ -3307,7 +3307,7 @@
         <v>-5.3</v>
       </c>
       <c r="DF5" t="n">
-        <v>13.4</v>
+        <v>7.500000000000002</v>
       </c>
       <c r="DG5" t="n">
         <v>61.9</v>
@@ -3316,7 +3316,7 @@
         <v>101.6</v>
       </c>
       <c r="DI5" t="n">
-        <v>1.2</v>
+        <v>0.8999999999999992</v>
       </c>
       <c r="DJ5" t="n">
         <v>8.300000000000001</v>
@@ -3334,7 +3334,7 @@
         <v>-39.4</v>
       </c>
       <c r="DO5" t="n">
-        <v>6.6</v>
+        <v>5.700000000000001</v>
       </c>
       <c r="DP5" t="n">
         <v>15.2</v>
@@ -3352,7 +3352,7 @@
         <v>5.1</v>
       </c>
       <c r="DU5" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="DV5" t="n">
         <v>-11.1</v>
@@ -3370,7 +3370,7 @@
         <v>-46.2</v>
       </c>
       <c r="EA5" t="n">
-        <v>13.2</v>
+        <v>10.3</v>
       </c>
       <c r="EB5" t="n">
         <v>45.9</v>
@@ -3575,7 +3575,7 @@
         <v>-3.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>307.7000000000003</v>
+        <v>161.9000000000003</v>
       </c>
       <c r="R6" t="n">
         <v>1968.3</v>
@@ -3593,7 +3593,7 @@
         <v>32.6</v>
       </c>
       <c r="W6" t="n">
-        <v>0.199999999999998</v>
+        <v>0.199999999999996</v>
       </c>
       <c r="X6" t="n">
         <v>16.4</v>
@@ -3602,7 +3602,7 @@
         <v>14.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.4</v>
+        <v>20.9</v>
       </c>
       <c r="AA6" t="n">
         <v>89.59999999999999</v>
@@ -3629,7 +3629,7 @@
         <v>-27.9</v>
       </c>
       <c r="AI6" t="n">
-        <v>370.4000000000001</v>
+        <v>126.8</v>
       </c>
       <c r="AJ6" t="n">
         <v>2465.1</v>
@@ -3656,7 +3656,7 @@
         <v>-81.8</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.399999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AS6" t="n">
         <v>9.6</v>
@@ -3701,7 +3701,7 @@
         <v>5</v>
       </c>
       <c r="BG6" t="n">
-        <v>10.9</v>
+        <v>7.799999999999999</v>
       </c>
       <c r="BH6" t="n">
         <v>17</v>
@@ -3719,7 +3719,7 @@
         <v>0.4</v>
       </c>
       <c r="BM6" t="n">
-        <v>12.8</v>
+        <v>9.5</v>
       </c>
       <c r="BN6" t="n">
         <v>2.7</v>
@@ -3737,7 +3737,7 @@
         <v>185.2</v>
       </c>
       <c r="BS6" t="n">
-        <v>6.299999999999997</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="BT6" t="n">
         <v>33</v>
@@ -3764,7 +3764,7 @@
         <v>36.7</v>
       </c>
       <c r="CB6" t="n">
-        <v>23.8</v>
+        <v>9.000000000000021</v>
       </c>
       <c r="CC6" t="n">
         <v>127.9</v>
@@ -3782,7 +3782,7 @@
         <v>137.9</v>
       </c>
       <c r="CH6" t="n">
-        <v>9.399999999999999</v>
+        <v>5.299999999999997</v>
       </c>
       <c r="CI6" t="n">
         <v>57.9</v>
@@ -3791,7 +3791,7 @@
         <v>64.5</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.9000000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="CL6" t="n">
         <v>-0.6</v>
@@ -3854,7 +3854,7 @@
         <v>-2</v>
       </c>
       <c r="DF6" t="n">
-        <v>17.59999999999999</v>
+        <v>4.19999999999999</v>
       </c>
       <c r="DG6" t="n">
         <v>94.8</v>
@@ -3872,7 +3872,7 @@
         <v>31</v>
       </c>
       <c r="DL6" t="n">
-        <v>11.5</v>
+        <v>8.300000000000004</v>
       </c>
       <c r="DM6" t="n">
         <v>33.6</v>
@@ -3917,7 +3917,7 @@
         <v>25.4</v>
       </c>
       <c r="EA6" t="n">
-        <v>26</v>
+        <v>12.8</v>
       </c>
       <c r="EB6" t="n">
         <v>80.2</v>
@@ -3926,7 +3926,7 @@
         <v>117.3</v>
       </c>
       <c r="ED6" t="n">
-        <v>7.600000000000001</v>
+        <v>7.100000000000003</v>
       </c>
       <c r="EE6" t="n">
         <v>28.7</v>
@@ -4131,7 +4131,7 @@
         <v>4.9</v>
       </c>
       <c r="T7" t="n">
-        <v>43.19999999999999</v>
+        <v>25.99999999999999</v>
       </c>
       <c r="U7" t="n">
         <v>130.5</v>
@@ -4140,7 +4140,7 @@
         <v>12.8</v>
       </c>
       <c r="W7" t="n">
-        <v>1.600000000000001</v>
+        <v>1.400000000000003</v>
       </c>
       <c r="X7" t="n">
         <v>17.6</v>
@@ -4158,7 +4158,7 @@
         <v>-23.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.999999999999998</v>
+        <v>1.699999999999997</v>
       </c>
       <c r="AD7" t="n">
         <v>7.1</v>
@@ -4185,7 +4185,7 @@
         <v>10</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.1000000000000001</v>
+        <v>1.249000902703301e-16</v>
       </c>
       <c r="AM7" t="n">
         <v>1</v>
@@ -4212,7 +4212,7 @@
         <v>43.7</v>
       </c>
       <c r="AU7" t="n">
-        <v>28.5</v>
+        <v>25.5</v>
       </c>
       <c r="AV7" t="n">
         <v>51.1</v>
@@ -4221,7 +4221,7 @@
         <v>43.9</v>
       </c>
       <c r="AX7" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AY7" t="n">
         <v>11.2</v>
@@ -4230,7 +4230,7 @@
         <v>220</v>
       </c>
       <c r="BA7" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="BB7" t="n">
         <v>0.7</v>
@@ -4239,7 +4239,7 @@
         <v>-333.3</v>
       </c>
       <c r="BD7" t="n">
-        <v>1.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="BE7" t="n">
         <v>21.9</v>
@@ -4302,7 +4302,7 @@
         <v>27.3</v>
       </c>
       <c r="BY7" t="n">
-        <v>49.39999999999998</v>
+        <v>24.59999999999997</v>
       </c>
       <c r="BZ7" t="n">
         <v>379</v>
@@ -4338,7 +4338,7 @@
         <v>52.8</v>
       </c>
       <c r="CK7" t="n">
-        <v>1.2</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="CL7" t="n">
         <v>-0.9</v>
@@ -4347,7 +4347,7 @@
         <v>28.6</v>
       </c>
       <c r="CN7" t="n">
-        <v>21.3</v>
+        <v>17.1</v>
       </c>
       <c r="CO7" t="n">
         <v>37.6</v>
@@ -4356,7 +4356,7 @@
         <v>41.9</v>
       </c>
       <c r="CQ7" t="n">
-        <v>4.099999999999998</v>
+        <v>2.899999999999997</v>
       </c>
       <c r="CR7" t="n">
         <v>46.7</v>
@@ -4383,7 +4383,7 @@
         <v>-9.1</v>
       </c>
       <c r="CZ7" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="DA7" t="n">
         <v>13.6</v>
@@ -4428,7 +4428,7 @@
         <v>44.2</v>
       </c>
       <c r="DO7" t="n">
-        <v>3.199999999999999</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="DP7" t="n">
         <v>32.6</v>
@@ -4446,7 +4446,7 @@
         <v>34.5</v>
       </c>
       <c r="DU7" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="DV7" t="n">
         <v>-10.7</v>
@@ -4455,7 +4455,7 @@
         <v>-405.7</v>
       </c>
       <c r="DX7" t="n">
-        <v>9.300000000000001</v>
+        <v>8.400000000000002</v>
       </c>
       <c r="DY7" t="n">
         <v>77</v>
@@ -4624,7 +4624,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.899999999999981</v>
+        <v>1.399999999999981</v>
       </c>
       <c r="C8" t="n">
         <v>101.4</v>
@@ -4633,7 +4633,7 @@
         <v>-34.1</v>
       </c>
       <c r="E8" t="n">
-        <v>2.500000000000007</v>
+        <v>1.300000000000011</v>
       </c>
       <c r="F8" t="n">
         <v>37.5</v>
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O8" t="n">
         <v>66</v>
@@ -4732,7 +4732,7 @@
         <v>7</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.1999999999999999</v>
+        <v>0.0999999999999998</v>
       </c>
       <c r="AM8" t="n">
         <v>1.3</v>
@@ -4750,7 +4750,7 @@
         <v>-76.90000000000001</v>
       </c>
       <c r="AR8" t="n">
-        <v>2.799999999999998</v>
+        <v>2.599999999999996</v>
       </c>
       <c r="AS8" t="n">
         <v>14.5</v>
@@ -4759,7 +4759,7 @@
         <v>40.8</v>
       </c>
       <c r="AU8" t="n">
-        <v>29</v>
+        <v>0.5</v>
       </c>
       <c r="AV8" t="n">
         <v>55.6</v>
@@ -4795,7 +4795,7 @@
         <v>31.4</v>
       </c>
       <c r="BG8" t="n">
-        <v>6.899999999999999</v>
+        <v>6.599999999999998</v>
       </c>
       <c r="BH8" t="n">
         <v>26</v>
@@ -4822,7 +4822,7 @@
         <v>-14.5</v>
       </c>
       <c r="BP8" t="n">
-        <v>4.399999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="BQ8" t="n">
         <v>97.09999999999999</v>
@@ -4840,7 +4840,7 @@
         <v>-7.2</v>
       </c>
       <c r="BV8" t="n">
-        <v>100.1</v>
+        <v>66.89999999999995</v>
       </c>
       <c r="BW8" t="n">
         <v>469.7</v>
@@ -4849,7 +4849,7 @@
         <v>10.9</v>
       </c>
       <c r="BY8" t="n">
-        <v>93.90000000000001</v>
+        <v>44.50000000000003</v>
       </c>
       <c r="BZ8" t="n">
         <v>403.7</v>
@@ -4858,7 +4858,7 @@
         <v>13.2</v>
       </c>
       <c r="CB8" t="n">
-        <v>19.5</v>
+        <v>6</v>
       </c>
       <c r="CC8" t="n">
         <v>163.9</v>
@@ -4912,7 +4912,7 @@
         <v>199.5</v>
       </c>
       <c r="CT8" t="n">
-        <v>34.10000000000002</v>
+        <v>13.00000000000006</v>
       </c>
       <c r="CU8" t="n">
         <v>233.6</v>
@@ -4921,7 +4921,7 @@
         <v>-0.6</v>
       </c>
       <c r="CW8" t="n">
-        <v>9</v>
+        <v>0.7000000000000028</v>
       </c>
       <c r="CX8" t="n">
         <v>84.90000000000001</v>
@@ -4939,7 +4939,7 @@
         <v>35.8</v>
       </c>
       <c r="DC8" t="n">
-        <v>4.800000000000004</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="DD8" t="n">
         <v>52.8</v>
@@ -4966,7 +4966,7 @@
         <v>31.5</v>
       </c>
       <c r="DL8" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="DM8" t="n">
         <v>35.4</v>
@@ -5011,7 +5011,7 @@
         <v>32.4</v>
       </c>
       <c r="EA8" t="n">
-        <v>62.7</v>
+        <v>57</v>
       </c>
       <c r="EB8" t="n">
         <v>135.4</v>
@@ -5180,7 +5180,7 @@
         <v>-31.7</v>
       </c>
       <c r="E9" t="n">
-        <v>2.799999999999997</v>
+        <v>0.2999999999999901</v>
       </c>
       <c r="F9" t="n">
         <v>41.2</v>
@@ -5189,7 +5189,7 @@
         <v>-21.7</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1000000000000001</v>
+        <v>1.942890293094024e-16</v>
       </c>
       <c r="I9" t="n">
         <v>2.5</v>
@@ -5234,7 +5234,7 @@
         <v>-8</v>
       </c>
       <c r="W9" t="n">
-        <v>17.6</v>
+        <v>17</v>
       </c>
       <c r="X9" t="n">
         <v>31.8</v>
@@ -5243,7 +5243,7 @@
         <v>59</v>
       </c>
       <c r="Z9" t="n">
-        <v>32.20000000000002</v>
+        <v>20.60000000000003</v>
       </c>
       <c r="AA9" t="n">
         <v>129.6</v>
@@ -5261,7 +5261,7 @@
         <v>-35.9</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.799999999999997</v>
+        <v>4.499999999999996</v>
       </c>
       <c r="AG9" t="n">
         <v>24.8</v>
@@ -5270,7 +5270,7 @@
         <v>-5</v>
       </c>
       <c r="AI9" t="n">
-        <v>341.4000000000001</v>
+        <v>276.6999999999998</v>
       </c>
       <c r="AJ9" t="n">
         <v>3578.2</v>
@@ -5297,7 +5297,7 @@
         <v>-69.2</v>
       </c>
       <c r="AR9" t="n">
-        <v>3.699999999999999</v>
+        <v>0.9000000000000008</v>
       </c>
       <c r="AS9" t="n">
         <v>16.7</v>
@@ -5315,7 +5315,7 @@
         <v>111</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AY9" t="n">
         <v>12.2</v>
@@ -5369,7 +5369,7 @@
         <v>-7</v>
       </c>
       <c r="BP9" t="n">
-        <v>12.5</v>
+        <v>8.100000000000001</v>
       </c>
       <c r="BQ9" t="n">
         <v>117.3</v>
@@ -5414,7 +5414,7 @@
         <v>4</v>
       </c>
       <c r="CE9" t="n">
-        <v>2.899999999999999</v>
+        <v>2.799999999999999</v>
       </c>
       <c r="CF9" t="n">
         <v>31</v>
@@ -5423,7 +5423,7 @@
         <v>198.1</v>
       </c>
       <c r="CH9" t="n">
-        <v>4.600000000000001</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="CI9" t="n">
         <v>80.7</v>
@@ -5432,7 +5432,7 @@
         <v>28.1</v>
       </c>
       <c r="CK9" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="CL9" t="n">
         <v>0.2</v>
@@ -5450,7 +5450,7 @@
         <v>38.1</v>
       </c>
       <c r="CQ9" t="n">
-        <v>3.899999999999999</v>
+        <v>3.099999999999998</v>
       </c>
       <c r="CR9" t="n">
         <v>62.3</v>
@@ -5495,7 +5495,7 @@
         <v>-9.4</v>
       </c>
       <c r="DF9" t="n">
-        <v>12.49999999999999</v>
+        <v>2.19999999999998</v>
       </c>
       <c r="DG9" t="n">
         <v>183.3</v>
@@ -5513,7 +5513,7 @@
         <v>33.3</v>
       </c>
       <c r="DL9" t="n">
-        <v>1.600000000000001</v>
+        <v>0.600000000000001</v>
       </c>
       <c r="DM9" t="n">
         <v>36.5</v>
@@ -5522,7 +5522,7 @@
         <v>118.6</v>
       </c>
       <c r="DO9" t="n">
-        <v>2.100000000000001</v>
+        <v>0.8000000000000049</v>
       </c>
       <c r="DP9" t="n">
         <v>36.4</v>
@@ -5567,7 +5567,7 @@
         <v>143.1</v>
       </c>
       <c r="ED9" t="n">
-        <v>4.100000000000001</v>
+        <v>3.300000000000004</v>
       </c>
       <c r="EE9" t="n">
         <v>51.3</v>
@@ -5718,7 +5718,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.30000000000001</v>
+        <v>5.899999999999981</v>
       </c>
       <c r="C10" t="n">
         <v>136.1</v>
@@ -5727,7 +5727,7 @@
         <v>-24</v>
       </c>
       <c r="E10" t="n">
-        <v>4.900000000000006</v>
+        <v>2.100000000000009</v>
       </c>
       <c r="F10" t="n">
         <v>44.2</v>
@@ -5736,7 +5736,7 @@
         <v>-20.2</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1999999999999997</v>
+        <v>0.0999999999999996</v>
       </c>
       <c r="I10" t="n">
         <v>2.6</v>
@@ -5763,7 +5763,7 @@
         <v>17.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>76.49999999999955</v>
+        <v>49.49999999999906</v>
       </c>
       <c r="R10" t="n">
         <v>3038.8</v>
@@ -5799,7 +5799,7 @@
         <v>-27</v>
       </c>
       <c r="AC10" t="n">
-        <v>2</v>
+        <v>1.799999999999999</v>
       </c>
       <c r="AD10" t="n">
         <v>10.2</v>
@@ -5826,7 +5826,7 @@
         <v>3.3</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.4000000000000001</v>
+        <v>0.3000000000000002</v>
       </c>
       <c r="AM10" t="n">
         <v>2.1</v>
@@ -5862,7 +5862,7 @@
         <v>67</v>
       </c>
       <c r="AX10" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="AY10" t="n">
         <v>12.5</v>
@@ -5871,7 +5871,7 @@
         <v>160.4</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.1</v>
+        <v>2.775557561562891e-17</v>
       </c>
       <c r="BB10" t="n">
         <v>2.7</v>
@@ -5880,7 +5880,7 @@
         <v>440</v>
       </c>
       <c r="BD10" t="n">
-        <v>5.099999999999998</v>
+        <v>4.499999999999996</v>
       </c>
       <c r="BE10" t="n">
         <v>39.5</v>
@@ -5898,7 +5898,7 @@
         <v>-7.9</v>
       </c>
       <c r="BJ10" t="n">
-        <v>70.70000000000005</v>
+        <v>35.10000000000002</v>
       </c>
       <c r="BK10" t="n">
         <v>837.5</v>
@@ -5943,7 +5943,7 @@
         <v>-5.7</v>
       </c>
       <c r="BY10" t="n">
-        <v>42.79999999999995</v>
+        <v>1.199999999999925</v>
       </c>
       <c r="BZ10" t="n">
         <v>528.8</v>
@@ -5970,7 +5970,7 @@
         <v>127.7</v>
       </c>
       <c r="CH10" t="n">
-        <v>8.599999999999994</v>
+        <v>3.999999999999993</v>
       </c>
       <c r="CI10" t="n">
         <v>63.2</v>
@@ -5979,7 +5979,7 @@
         <v>-17.9</v>
       </c>
       <c r="CK10" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="CL10" t="n">
         <v>0.2</v>
@@ -5988,7 +5988,7 @@
         <v>-128.6</v>
       </c>
       <c r="CN10" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="CO10" t="n">
         <v>38.6</v>
@@ -6006,7 +6006,7 @@
         <v>153.3</v>
       </c>
       <c r="CT10" t="n">
-        <v>55.49999999999994</v>
+        <v>27.39999999999992</v>
       </c>
       <c r="CU10" t="n">
         <v>267.5</v>
@@ -6015,7 +6015,7 @@
         <v>-22.1</v>
       </c>
       <c r="CW10" t="n">
-        <v>13.70000000000001</v>
+        <v>7.000000000000007</v>
       </c>
       <c r="CX10" t="n">
         <v>106.8</v>
@@ -6024,7 +6024,7 @@
         <v>-11.3</v>
       </c>
       <c r="CZ10" t="n">
-        <v>2.699999999999999</v>
+        <v>2.399999999999998</v>
       </c>
       <c r="DA10" t="n">
         <v>28.9</v>
@@ -6033,7 +6033,7 @@
         <v>117.3</v>
       </c>
       <c r="DC10" t="n">
-        <v>13.10000000000001</v>
+        <v>12.30000000000001</v>
       </c>
       <c r="DD10" t="n">
         <v>58</v>
@@ -6051,7 +6051,7 @@
         <v>69.09999999999999</v>
       </c>
       <c r="DI10" t="n">
-        <v>1.799999999999998</v>
+        <v>1.599999999999999</v>
       </c>
       <c r="DJ10" t="n">
         <v>15.2</v>
@@ -6060,7 +6060,7 @@
         <v>40.7</v>
       </c>
       <c r="DL10" t="n">
-        <v>5.999999999999996</v>
+        <v>4.399999999999995</v>
       </c>
       <c r="DM10" t="n">
         <v>34.5</v>
@@ -6078,7 +6078,7 @@
         <v>6.4</v>
       </c>
       <c r="DR10" t="n">
-        <v>13.59999999999998</v>
+        <v>12.79999999999997</v>
       </c>
       <c r="DS10" t="n">
         <v>104.6</v>
@@ -6087,7 +6087,7 @@
         <v>37.8</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.5999999999999996</v>
+        <v>0.3999999999999995</v>
       </c>
       <c r="DV10" t="n">
         <v>2</v>
@@ -6096,7 +6096,7 @@
         <v>-66.09999999999999</v>
       </c>
       <c r="DX10" t="n">
-        <v>2.400000000000006</v>
+        <v>0.7999999999999972</v>
       </c>
       <c r="DY10" t="n">
         <v>107.6</v>
@@ -6105,7 +6105,7 @@
         <v>32.3</v>
       </c>
       <c r="EA10" t="n">
-        <v>9.5</v>
+        <v>2.5</v>
       </c>
       <c r="EB10" t="n">
         <v>189.7</v>
@@ -6265,7 +6265,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.19999999999999</v>
+        <v>68.89999999999998</v>
       </c>
       <c r="C11" t="n">
         <v>164.2</v>
@@ -6274,7 +6274,7 @@
         <v>-13.3</v>
       </c>
       <c r="E11" t="n">
-        <v>54.8</v>
+        <v>49.89999999999999</v>
       </c>
       <c r="F11" t="n">
         <v>52.3</v>
@@ -6283,7 +6283,7 @@
         <v>-17.1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7000000000000002</v>
+        <v>0.5000000000000004</v>
       </c>
       <c r="I11" t="n">
         <v>2.6</v>
@@ -6310,7 +6310,7 @@
         <v>25.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>651.4000000000003</v>
+        <v>574.9000000000008</v>
       </c>
       <c r="R11" t="n">
         <v>3319.7</v>
@@ -6319,7 +6319,7 @@
         <v>0.3</v>
       </c>
       <c r="T11" t="n">
-        <v>46.69999999999999</v>
+        <v>46.29999999999998</v>
       </c>
       <c r="U11" t="n">
         <v>203.2</v>
@@ -6328,7 +6328,7 @@
         <v>-2.9</v>
       </c>
       <c r="W11" t="n">
-        <v>5.400000000000002</v>
+        <v>1.000000000000004</v>
       </c>
       <c r="X11" t="n">
         <v>50.9</v>
@@ -6355,7 +6355,7 @@
         <v>-40</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.099999999999998</v>
+        <v>5.999999999999996</v>
       </c>
       <c r="AG11" t="n">
         <v>25.8</v>
@@ -6364,7 +6364,7 @@
         <v>-17.6</v>
       </c>
       <c r="AI11" t="n">
-        <v>780.1000000000001</v>
+        <v>675.3000000000004</v>
       </c>
       <c r="AJ11" t="n">
         <v>4208.2</v>
@@ -6391,7 +6391,7 @@
         <v>-66.7</v>
       </c>
       <c r="AR11" t="n">
-        <v>3.800000000000001</v>
+        <v>3.699999999999999</v>
       </c>
       <c r="AS11" t="n">
         <v>27.7</v>
@@ -6400,7 +6400,7 @@
         <v>24.8</v>
       </c>
       <c r="AU11" t="n">
-        <v>17.00000000000001</v>
+        <v>8.900000000000016</v>
       </c>
       <c r="AV11" t="n">
         <v>71.8</v>
@@ -6436,7 +6436,7 @@
         <v>43.5</v>
       </c>
       <c r="BG11" t="n">
-        <v>6.600000000000001</v>
+        <v>6.199999999999999</v>
       </c>
       <c r="BH11" t="n">
         <v>30</v>
@@ -6445,7 +6445,7 @@
         <v>-14</v>
       </c>
       <c r="BJ11" t="n">
-        <v>78.39999999999986</v>
+        <v>7.699999999999818</v>
       </c>
       <c r="BK11" t="n">
         <v>868.1</v>
@@ -6454,7 +6454,7 @@
         <v>-10.3</v>
       </c>
       <c r="BM11" t="n">
-        <v>58.8</v>
+        <v>56.90000000000001</v>
       </c>
       <c r="BN11" t="n">
         <v>33.6</v>
@@ -6463,7 +6463,7 @@
         <v>-3.4</v>
       </c>
       <c r="BP11" t="n">
-        <v>55.3</v>
+        <v>54.7</v>
       </c>
       <c r="BQ11" t="n">
         <v>126.8</v>
@@ -6472,7 +6472,7 @@
         <v>113.5</v>
       </c>
       <c r="BS11" t="n">
-        <v>6.600000000000001</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="BT11" t="n">
         <v>53.4</v>
@@ -6481,7 +6481,7 @@
         <v>4.1</v>
       </c>
       <c r="BV11" t="n">
-        <v>63.80000000000001</v>
+        <v>20.69999999999998</v>
       </c>
       <c r="BW11" t="n">
         <v>674.3</v>
@@ -6490,7 +6490,7 @@
         <v>-8.5</v>
       </c>
       <c r="BY11" t="n">
-        <v>50.60000000000002</v>
+        <v>7.800000000000075</v>
       </c>
       <c r="BZ11" t="n">
         <v>590.9</v>
@@ -6499,7 +6499,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="CB11" t="n">
-        <v>156.5</v>
+        <v>152.3</v>
       </c>
       <c r="CC11" t="n">
         <v>224</v>
@@ -6544,7 +6544,7 @@
         <v>43.8</v>
       </c>
       <c r="CQ11" t="n">
-        <v>24.9</v>
+        <v>22.7</v>
       </c>
       <c r="CR11" t="n">
         <v>75.5</v>
@@ -6553,7 +6553,7 @@
         <v>170.6</v>
       </c>
       <c r="CT11" t="n">
-        <v>64.40000000000015</v>
+        <v>8.900000000000205</v>
       </c>
       <c r="CU11" t="n">
         <v>288.7</v>
@@ -6562,7 +6562,7 @@
         <v>-32.4</v>
       </c>
       <c r="CW11" t="n">
-        <v>37.29999999999998</v>
+        <v>23.59999999999997</v>
       </c>
       <c r="CX11" t="n">
         <v>120.1</v>
@@ -6571,7 +6571,7 @@
         <v>-14.7</v>
       </c>
       <c r="CZ11" t="n">
-        <v>3.300000000000001</v>
+        <v>0.6000000000000023</v>
       </c>
       <c r="DA11" t="n">
         <v>30.6</v>
@@ -6589,7 +6589,7 @@
         <v>-16.4</v>
       </c>
       <c r="DF11" t="n">
-        <v>65.2</v>
+        <v>57.30000000000001</v>
       </c>
       <c r="DG11" t="n">
         <v>214.1</v>
@@ -6598,7 +6598,7 @@
         <v>75.3</v>
       </c>
       <c r="DI11" t="n">
-        <v>2.5</v>
+        <v>0.700000000000002</v>
       </c>
       <c r="DJ11" t="n">
         <v>17.2</v>
@@ -6616,7 +6616,7 @@
         <v>27.7</v>
       </c>
       <c r="DO11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DP11" t="n">
         <v>44</v>
@@ -6643,7 +6643,7 @@
         <v>-64.2</v>
       </c>
       <c r="DX11" t="n">
-        <v>15.69999999999999</v>
+        <v>13.29999999999998</v>
       </c>
       <c r="DY11" t="n">
         <v>112.2</v>
@@ -6652,7 +6652,7 @@
         <v>34.1</v>
       </c>
       <c r="EA11" t="n">
-        <v>14.5</v>
+        <v>5</v>
       </c>
       <c r="EB11" t="n">
         <v>223.5</v>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>5.5</v>
+        <v>5.200000000000003</v>
       </c>
       <c r="O12" t="n">
         <v>121.9</v>
@@ -6956,7 +6956,7 @@
         <v>44.9</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="AY12" t="n">
         <v>15.3</v>
@@ -6965,7 +6965,7 @@
         <v>45.7</v>
       </c>
       <c r="BA12" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="BB12" t="n">
         <v>7.7</v>
@@ -6974,7 +6974,7 @@
         <v>-505.3</v>
       </c>
       <c r="BD12" t="n">
-        <v>5.199999999999999</v>
+        <v>4.599999999999998</v>
       </c>
       <c r="BE12" t="n">
         <v>54.3</v>
@@ -6992,7 +6992,7 @@
         <v>-1.4</v>
       </c>
       <c r="BJ12" t="n">
-        <v>101.3</v>
+        <v>22.90000000000013</v>
       </c>
       <c r="BK12" t="n">
         <v>1097.5</v>
@@ -7064,7 +7064,7 @@
         <v>100</v>
       </c>
       <c r="CH12" t="n">
-        <v>11.7</v>
+        <v>4.399999999999984</v>
       </c>
       <c r="CI12" t="n">
         <v>90.90000000000001</v>
@@ -7073,7 +7073,7 @@
         <v>-10.4</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.7</v>
+        <v>0.09999999999999987</v>
       </c>
       <c r="CL12" t="n">
         <v>8.6</v>
@@ -7082,7 +7082,7 @@
         <v>50.9</v>
       </c>
       <c r="CN12" t="n">
-        <v>4.699999999999999</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="CO12" t="n">
         <v>50.3</v>
@@ -7127,7 +7127,7 @@
         <v>95.09999999999999</v>
       </c>
       <c r="DC12" t="n">
-        <v>2.8</v>
+        <v>2.000000000000019</v>
       </c>
       <c r="DD12" t="n">
         <v>82.8</v>
@@ -7154,7 +7154,7 @@
         <v>22.5</v>
       </c>
       <c r="DL12" t="n">
-        <v>3.5</v>
+        <v>0.09999999999999787</v>
       </c>
       <c r="DM12" t="n">
         <v>58.7</v>
@@ -7440,7 +7440,7 @@
         <v>52.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AD13" t="n">
         <v>0.7</v>
@@ -7494,7 +7494,7 @@
         <v>33.3</v>
       </c>
       <c r="AU13" t="n">
-        <v>4.8</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="AV13" t="n">
         <v>12.9</v>
@@ -7575,7 +7575,7 @@
         <v>16.4</v>
       </c>
       <c r="BV13" t="n">
-        <v>133.8</v>
+        <v>106.1</v>
       </c>
       <c r="BW13" t="n">
         <v>23.3</v>
@@ -7584,7 +7584,7 @@
         <v>-15.9</v>
       </c>
       <c r="BY13" t="n">
-        <v>134.9</v>
+        <v>116.6</v>
       </c>
       <c r="BZ13" t="n">
         <v>13.7</v>
@@ -7692,7 +7692,7 @@
         <v>8.9</v>
       </c>
       <c r="DI13" t="n">
-        <v>1.600000000000001</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="DJ13" t="n">
         <v>3.1</v>
@@ -7719,7 +7719,7 @@
         <v>50</v>
       </c>
       <c r="DR13" t="n">
-        <v>28.5</v>
+        <v>25.6</v>
       </c>
       <c r="DS13" t="n">
         <v>4.3</v>
@@ -7728,7 +7728,7 @@
         <v>48.3</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="DV13" t="n">
         <v>0.6</v>
@@ -7755,7 +7755,7 @@
         <v>30.1</v>
       </c>
       <c r="ED13" t="n">
-        <v>4.1</v>
+        <v>3.800000000000002</v>
       </c>
       <c r="EE13" t="n">
         <v>9.699999999999999</v>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.59999999999999</v>
+        <v>6.499999999999993</v>
       </c>
       <c r="C14" t="n">
         <v>31.8</v>
@@ -8005,7 +8005,7 @@
         <v>32.7</v>
       </c>
       <c r="AI14" t="n">
-        <v>310.6000000000001</v>
+        <v>207.6000000000001</v>
       </c>
       <c r="AJ14" t="n">
         <v>838.3</v>
@@ -8032,7 +8032,7 @@
         <v>750</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.9000000000000012</v>
+        <v>0.2000000000000015</v>
       </c>
       <c r="AS14" t="n">
         <v>5.7</v>
@@ -8041,7 +8041,7 @@
         <v>32.6</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.300000000000001</v>
+        <v>2.500000000000001</v>
       </c>
       <c r="AV14" t="n">
         <v>18.1</v>
@@ -8068,7 +8068,7 @@
         <v>-50</v>
       </c>
       <c r="BD14" t="n">
-        <v>6.9</v>
+        <v>5.300000000000001</v>
       </c>
       <c r="BE14" t="n">
         <v>9</v>
@@ -8104,7 +8104,7 @@
         <v>-10</v>
       </c>
       <c r="BP14" t="n">
-        <v>7.399999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="BQ14" t="n">
         <v>20.2</v>
@@ -8140,7 +8140,7 @@
         <v>-6.6</v>
       </c>
       <c r="CB14" t="n">
-        <v>16</v>
+        <v>13.4</v>
       </c>
       <c r="CC14" t="n">
         <v>35.3</v>
@@ -8149,7 +8149,7 @@
         <v>-22.6</v>
       </c>
       <c r="CE14" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="CF14" t="n">
         <v>2</v>
@@ -8167,7 +8167,7 @@
         <v>10.4</v>
       </c>
       <c r="CK14" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="CL14" t="n">
         <v>-0.1</v>
@@ -8176,7 +8176,7 @@
         <v>-88.90000000000001</v>
       </c>
       <c r="CN14" t="n">
-        <v>7.4</v>
+        <v>5.4</v>
       </c>
       <c r="CO14" t="n">
         <v>9.6</v>
@@ -8185,7 +8185,7 @@
         <v>-10.3</v>
       </c>
       <c r="CQ14" t="n">
-        <v>10.4</v>
+        <v>9</v>
       </c>
       <c r="CR14" t="n">
         <v>4.2</v>
@@ -8221,7 +8221,7 @@
         <v>115.8</v>
       </c>
       <c r="DC14" t="n">
-        <v>9.199999999999999</v>
+        <v>6.499999999999998</v>
       </c>
       <c r="DD14" t="n">
         <v>22.8</v>
@@ -8257,7 +8257,7 @@
         <v>42.2</v>
       </c>
       <c r="DO14" t="n">
-        <v>1.699999999999999</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="DP14" t="n">
         <v>12.3</v>
@@ -8284,7 +8284,7 @@
         <v>100</v>
       </c>
       <c r="DX14" t="n">
-        <v>10.1</v>
+        <v>7.299999999999999</v>
       </c>
       <c r="DY14" t="n">
         <v>55.5</v>
@@ -8293,7 +8293,7 @@
         <v>404.5</v>
       </c>
       <c r="EA14" t="n">
-        <v>12</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="EB14" t="n">
         <v>28.8</v>
@@ -8462,7 +8462,7 @@
         <v>-11.6</v>
       </c>
       <c r="E15" t="n">
-        <v>1.500000000000001</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="F15" t="n">
         <v>11.3</v>
@@ -8489,7 +8489,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1.5</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="O15" t="n">
         <v>23.7</v>
@@ -8507,7 +8507,7 @@
         <v>6.7</v>
       </c>
       <c r="T15" t="n">
-        <v>15.9</v>
+        <v>4.300000000000001</v>
       </c>
       <c r="U15" t="n">
         <v>67.59999999999999</v>
@@ -8516,7 +8516,7 @@
         <v>48.6</v>
       </c>
       <c r="W15" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="X15" t="n">
         <v>13.9</v>
@@ -8525,7 +8525,7 @@
         <v>113.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>14.2</v>
+        <v>8.299999999999999</v>
       </c>
       <c r="AA15" t="n">
         <v>38.3</v>
@@ -8543,7 +8543,7 @@
         <v>-8.1</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG15" t="n">
         <v>8.6</v>
@@ -8561,7 +8561,7 @@
         <v>3.9</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.2000000000000001</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="AM15" t="n">
         <v>1.2</v>
@@ -8588,7 +8588,7 @@
         <v>44.1</v>
       </c>
       <c r="AU15" t="n">
-        <v>14.8</v>
+        <v>7.5</v>
       </c>
       <c r="AV15" t="n">
         <v>30.5</v>
@@ -8597,7 +8597,7 @@
         <v>41.9</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.7999999999999987</v>
+        <v>0.3999999999999983</v>
       </c>
       <c r="AY15" t="n">
         <v>3.5</v>
@@ -8624,7 +8624,7 @@
         <v>56.5</v>
       </c>
       <c r="BG15" t="n">
-        <v>1.899999999999999</v>
+        <v>1.499999999999999</v>
       </c>
       <c r="BH15" t="n">
         <v>7</v>
@@ -8633,7 +8633,7 @@
         <v>-20.5</v>
       </c>
       <c r="BJ15" t="n">
-        <v>89.90000000000001</v>
+        <v>37.80000000000002</v>
       </c>
       <c r="BK15" t="n">
         <v>150.6</v>
@@ -8642,7 +8642,7 @@
         <v>-33.1</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.5999999999999999</v>
+        <v>0.4999999999999998</v>
       </c>
       <c r="BN15" t="n">
         <v>3.7</v>
@@ -8651,7 +8651,7 @@
         <v>236.4</v>
       </c>
       <c r="BP15" t="n">
-        <v>8.500000000000002</v>
+        <v>1.100000000000003</v>
       </c>
       <c r="BQ15" t="n">
         <v>39.5</v>
@@ -8705,7 +8705,7 @@
         <v>-51.1</v>
       </c>
       <c r="CH15" t="n">
-        <v>9.300000000000004</v>
+        <v>3.900000000000006</v>
       </c>
       <c r="CI15" t="n">
         <v>34.3</v>
@@ -8759,7 +8759,7 @@
         <v>4.8</v>
       </c>
       <c r="CZ15" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="DA15" t="n">
         <v>5.4</v>
@@ -8777,7 +8777,7 @@
         <v>16.1</v>
       </c>
       <c r="DF15" t="n">
-        <v>13.5</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="DG15" t="n">
         <v>65.8</v>
@@ -8795,7 +8795,7 @@
         <v>-5.4</v>
       </c>
       <c r="DL15" t="n">
-        <v>8</v>
+        <v>6.300000000000001</v>
       </c>
       <c r="DM15" t="n">
         <v>15.7</v>
@@ -8804,7 +8804,7 @@
         <v>46.7</v>
       </c>
       <c r="DO15" t="n">
-        <v>6.200000000000003</v>
+        <v>4.500000000000004</v>
       </c>
       <c r="DP15" t="n">
         <v>12.6</v>
@@ -8822,7 +8822,7 @@
         <v>2.3</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="DV15" t="n">
         <v>1.4</v>
@@ -9009,7 +9009,7 @@
         <v>-5.7</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>8.499999999999998</v>
       </c>
       <c r="F16" t="n">
         <v>15.6</v>
@@ -9018,7 +9018,7 @@
         <v>-4.3</v>
       </c>
       <c r="H16" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="I16" t="n">
         <v>0.8</v>
@@ -9036,7 +9036,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>5.200000000000001</v>
+        <v>3.700000000000001</v>
       </c>
       <c r="O16" t="n">
         <v>32.2</v>
@@ -9045,7 +9045,7 @@
         <v>16.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>246.2</v>
+        <v>74.19999999999999</v>
       </c>
       <c r="R16" t="n">
         <v>1327.1</v>
@@ -9072,7 +9072,7 @@
         <v>47.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>23.59999999999999</v>
+        <v>9.399999999999991</v>
       </c>
       <c r="AA16" t="n">
         <v>67.8</v>
@@ -9081,7 +9081,7 @@
         <v>-0.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.000000000000001</v>
+        <v>0.4000000000000015</v>
       </c>
       <c r="AD16" t="n">
         <v>4.6</v>
@@ -9099,7 +9099,7 @@
         <v>3.8</v>
       </c>
       <c r="AI16" t="n">
-        <v>376.2000000000003</v>
+        <v>217.6000000000006</v>
       </c>
       <c r="AJ16" t="n">
         <v>1647</v>
@@ -9126,7 +9126,7 @@
         <v>1000</v>
       </c>
       <c r="AR16" t="n">
-        <v>1.600000000000001</v>
+        <v>1.300000000000003</v>
       </c>
       <c r="AS16" t="n">
         <v>10.3</v>
@@ -9135,7 +9135,7 @@
         <v>32.1</v>
       </c>
       <c r="AU16" t="n">
-        <v>16.4</v>
+        <v>1.599999999999998</v>
       </c>
       <c r="AV16" t="n">
         <v>75</v>
@@ -9144,7 +9144,7 @@
         <v>72</v>
       </c>
       <c r="AX16" t="n">
-        <v>1.400000000000001</v>
+        <v>0.6000000000000023</v>
       </c>
       <c r="AY16" t="n">
         <v>2.1</v>
@@ -9153,7 +9153,7 @@
         <v>-70.40000000000001</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="BB16" t="n">
         <v>1.8</v>
@@ -9162,7 +9162,7 @@
         <v>125</v>
       </c>
       <c r="BD16" t="n">
-        <v>7</v>
+        <v>4.699999999999999</v>
       </c>
       <c r="BE16" t="n">
         <v>16.8</v>
@@ -9171,7 +9171,7 @@
         <v>55.6</v>
       </c>
       <c r="BG16" t="n">
-        <v>4.800000000000001</v>
+        <v>2.900000000000002</v>
       </c>
       <c r="BH16" t="n">
         <v>8.699999999999999</v>
@@ -9180,7 +9180,7 @@
         <v>-18.7</v>
       </c>
       <c r="BJ16" t="n">
-        <v>93.80000000000001</v>
+        <v>3.900000000000006</v>
       </c>
       <c r="BK16" t="n">
         <v>237.4</v>
@@ -9207,7 +9207,7 @@
         <v>10.7</v>
       </c>
       <c r="BS16" t="n">
-        <v>9.4</v>
+        <v>5.9</v>
       </c>
       <c r="BT16" t="n">
         <v>33</v>
@@ -9216,7 +9216,7 @@
         <v>59.4</v>
       </c>
       <c r="BV16" t="n">
-        <v>121.4</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="BW16" t="n">
         <v>236.9</v>
@@ -9225,7 +9225,7 @@
         <v>-9.1</v>
       </c>
       <c r="BY16" t="n">
-        <v>106.8</v>
+        <v>89.69999999999997</v>
       </c>
       <c r="BZ16" t="n">
         <v>195.2</v>
@@ -9234,7 +9234,7 @@
         <v>-14.9</v>
       </c>
       <c r="CB16" t="n">
-        <v>27.00000000000001</v>
+        <v>23.60000000000001</v>
       </c>
       <c r="CC16" t="n">
         <v>84.09999999999999</v>
@@ -9243,7 +9243,7 @@
         <v>3.8</v>
       </c>
       <c r="CE16" t="n">
-        <v>16.8</v>
+        <v>16.2</v>
       </c>
       <c r="CF16" t="n">
         <v>2.5</v>
@@ -9288,7 +9288,7 @@
         <v>-30.4</v>
       </c>
       <c r="CT16" t="n">
-        <v>39.10000000000002</v>
+        <v>22.50000000000003</v>
       </c>
       <c r="CU16" t="n">
         <v>127.2</v>
@@ -9315,7 +9315,7 @@
         <v>-21.3</v>
       </c>
       <c r="DC16" t="n">
-        <v>12.1</v>
+        <v>7.9</v>
       </c>
       <c r="DD16" t="n">
         <v>33.5</v>
@@ -9333,7 +9333,7 @@
         <v>9.4</v>
       </c>
       <c r="DI16" t="n">
-        <v>1</v>
+        <v>0.1999999999999991</v>
       </c>
       <c r="DJ16" t="n">
         <v>6.3</v>
@@ -9369,7 +9369,7 @@
         <v>-5.8</v>
       </c>
       <c r="DU16" t="n">
-        <v>0.7</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="DV16" t="n">
         <v>2.8</v>
@@ -9378,7 +9378,7 @@
         <v>133.3</v>
       </c>
       <c r="DX16" t="n">
-        <v>35.50000000000001</v>
+        <v>31.50000000000001</v>
       </c>
       <c r="DY16" t="n">
         <v>83.59999999999999</v>
@@ -9387,7 +9387,7 @@
         <v>199.6</v>
       </c>
       <c r="EA16" t="n">
-        <v>16.49999999999998</v>
+        <v>7.099999999999969</v>
       </c>
       <c r="EB16" t="n">
         <v>89.59999999999999</v>
@@ -9547,7 +9547,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.599999999999994</v>
+        <v>5.999999999999986</v>
       </c>
       <c r="C17" t="n">
         <v>74.5</v>
@@ -9592,7 +9592,7 @@
         <v>36.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>290.6000000000001</v>
+        <v>44.40000000000009</v>
       </c>
       <c r="R17" t="n">
         <v>2031.2</v>
@@ -9601,7 +9601,7 @@
         <v>3.3</v>
       </c>
       <c r="T17" t="n">
-        <v>73</v>
+        <v>57.90000000000001</v>
       </c>
       <c r="U17" t="n">
         <v>153.4</v>
@@ -9628,7 +9628,7 @@
         <v>9.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.3</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="AD17" t="n">
         <v>9.9</v>
@@ -9664,7 +9664,7 @@
         <v>40</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AP17" t="n">
         <v>2.2</v>
@@ -9736,7 +9736,7 @@
         <v>-19.6</v>
       </c>
       <c r="BM17" t="n">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="BN17" t="n">
         <v>21.6</v>
@@ -9745,7 +9745,7 @@
         <v>700</v>
       </c>
       <c r="BP17" t="n">
-        <v>18.8</v>
+        <v>11.3</v>
       </c>
       <c r="BQ17" t="n">
         <v>83.3</v>
@@ -9799,7 +9799,7 @@
         <v>-82.2</v>
       </c>
       <c r="CH17" t="n">
-        <v>11.89999999999999</v>
+        <v>8.699999999999994</v>
       </c>
       <c r="CI17" t="n">
         <v>71.90000000000001</v>
@@ -9817,7 +9817,7 @@
         <v>-140</v>
       </c>
       <c r="CN17" t="n">
-        <v>2.800000000000001</v>
+        <v>0.2000000000000011</v>
       </c>
       <c r="CO17" t="n">
         <v>22</v>
@@ -9826,7 +9826,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="CQ17" t="n">
-        <v>22.1</v>
+        <v>21.7</v>
       </c>
       <c r="CR17" t="n">
         <v>26.7</v>
@@ -9844,7 +9844,7 @@
         <v>-19</v>
       </c>
       <c r="CW17" t="n">
-        <v>10.69999999999999</v>
+        <v>8.49999999999998</v>
       </c>
       <c r="CX17" t="n">
         <v>77.7</v>
@@ -9853,7 +9853,7 @@
         <v>19.7</v>
       </c>
       <c r="CZ17" t="n">
-        <v>2.499999999999998</v>
+        <v>1.099999999999998</v>
       </c>
       <c r="DA17" t="n">
         <v>21.1</v>
@@ -9907,7 +9907,7 @@
         <v>-12.5</v>
       </c>
       <c r="DR17" t="n">
-        <v>15.19999999999999</v>
+        <v>7.999999999999982</v>
       </c>
       <c r="DS17" t="n">
         <v>70.2</v>
@@ -9916,7 +9916,7 @@
         <v>-6.3</v>
       </c>
       <c r="DU17" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="DV17" t="n">
         <v>14.5</v>
@@ -9943,7 +9943,7 @@
         <v>30.8</v>
       </c>
       <c r="ED17" t="n">
-        <v>2.199999999999996</v>
+        <v>2.099999999999995</v>
       </c>
       <c r="EE17" t="n">
         <v>26.3</v>
@@ -10094,7 +10094,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.700000000000006</v>
+        <v>1.100000000000012</v>
       </c>
       <c r="C18" t="n">
         <v>83.40000000000001</v>
@@ -10112,7 +10112,7 @@
         <v>26.4</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9000000000000001</v>
+        <v>0.8000000000000003</v>
       </c>
       <c r="I18" t="n">
         <v>2.3</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>35.1</v>
+        <v>31.1</v>
       </c>
       <c r="O18" t="n">
         <v>57.2</v>
@@ -10157,7 +10157,7 @@
         <v>64.3</v>
       </c>
       <c r="W18" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="X18" t="n">
         <v>22.8</v>
@@ -10175,7 +10175,7 @@
         <v>4.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>5.9</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="AD18" t="n">
         <v>12.3</v>
@@ -10184,7 +10184,7 @@
         <v>70.8</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.299999999999997</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="AG18" t="n">
         <v>23.4</v>
@@ -10202,7 +10202,7 @@
         <v>0.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AM18" t="n">
         <v>1.4</v>
@@ -10220,7 +10220,7 @@
         <v>-2300</v>
       </c>
       <c r="AR18" t="n">
-        <v>2.200000000000001</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="AS18" t="n">
         <v>13.9</v>
@@ -10238,7 +10238,7 @@
         <v>43</v>
       </c>
       <c r="AX18" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AY18" t="n">
         <v>4.3</v>
@@ -10265,7 +10265,7 @@
         <v>27.6</v>
       </c>
       <c r="BG18" t="n">
-        <v>4</v>
+        <v>3.299999999999997</v>
       </c>
       <c r="BH18" t="n">
         <v>19.2</v>
@@ -10355,7 +10355,7 @@
         <v>10.8</v>
       </c>
       <c r="CK18" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="CL18" t="n">
         <v>0.4</v>
@@ -10364,7 +10364,7 @@
         <v>-157.1</v>
       </c>
       <c r="CN18" t="n">
-        <v>2.899999999999998</v>
+        <v>0.09999999999999698</v>
       </c>
       <c r="CO18" t="n">
         <v>25.1</v>
@@ -10418,7 +10418,7 @@
         <v>19.7</v>
       </c>
       <c r="DF18" t="n">
-        <v>17</v>
+        <v>14.90000000000002</v>
       </c>
       <c r="DG18" t="n">
         <v>149.2</v>
@@ -10427,7 +10427,7 @@
         <v>3.5</v>
       </c>
       <c r="DI18" t="n">
-        <v>1.000000000000001</v>
+        <v>0.400000000000001</v>
       </c>
       <c r="DJ18" t="n">
         <v>10.2</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="DL18" t="n">
-        <v>14.1</v>
+        <v>11.3</v>
       </c>
       <c r="DM18" t="n">
         <v>30.4</v>
@@ -10641,7 +10641,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.7</v>
+        <v>1.999999999999993</v>
       </c>
       <c r="C19" t="n">
         <v>99.8</v>
@@ -10650,7 +10650,7 @@
         <v>-5.7</v>
       </c>
       <c r="E19" t="n">
-        <v>3.100000000000001</v>
+        <v>1.600000000000008</v>
       </c>
       <c r="F19" t="n">
         <v>49.5</v>
@@ -10704,7 +10704,7 @@
         <v>62.3</v>
       </c>
       <c r="W19" t="n">
-        <v>10.2</v>
+        <v>7.699999999999999</v>
       </c>
       <c r="X19" t="n">
         <v>24.5</v>
@@ -10731,7 +10731,7 @@
         <v>80.59999999999999</v>
       </c>
       <c r="AF19" t="n">
-        <v>18.4</v>
+        <v>14.1</v>
       </c>
       <c r="AG19" t="n">
         <v>31</v>
@@ -10749,7 +10749,7 @@
         <v>1.8</v>
       </c>
       <c r="AL19" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AM19" t="n">
         <v>1.7</v>
@@ -10803,7 +10803,7 @@
         <v>125</v>
       </c>
       <c r="BD19" t="n">
-        <v>4.5</v>
+        <v>2.700000000000003</v>
       </c>
       <c r="BE19" t="n">
         <v>31.4</v>
@@ -10830,7 +10830,7 @@
         <v>-22.1</v>
       </c>
       <c r="BM19" t="n">
-        <v>2.500000000000004</v>
+        <v>0.7000000000000071</v>
       </c>
       <c r="BN19" t="n">
         <v>40.8</v>
@@ -10839,7 +10839,7 @@
         <v>82.09999999999999</v>
       </c>
       <c r="BP19" t="n">
-        <v>19</v>
+        <v>7.099999999999991</v>
       </c>
       <c r="BQ19" t="n">
         <v>113.6</v>
@@ -10848,7 +10848,7 @@
         <v>12.5</v>
       </c>
       <c r="BS19" t="n">
-        <v>4.399999999999999</v>
+        <v>2.899999999999999</v>
       </c>
       <c r="BT19" t="n">
         <v>52.5</v>
@@ -10857,7 +10857,7 @@
         <v>29.6</v>
       </c>
       <c r="BV19" t="n">
-        <v>92.40000000000001</v>
+        <v>61.70000000000002</v>
       </c>
       <c r="BW19" t="n">
         <v>430.9</v>
@@ -10866,7 +10866,7 @@
         <v>-9.1</v>
       </c>
       <c r="BY19" t="n">
-        <v>88.89999999999998</v>
+        <v>63.79999999999995</v>
       </c>
       <c r="BZ19" t="n">
         <v>356.6</v>
@@ -10884,7 +10884,7 @@
         <v>4.3</v>
       </c>
       <c r="CE19" t="n">
-        <v>2.100000000000001</v>
+        <v>0.200000000000002</v>
       </c>
       <c r="CF19" t="n">
         <v>36</v>
@@ -10911,7 +10911,7 @@
         <v>-33.3</v>
       </c>
       <c r="CN19" t="n">
-        <v>3.100000000000001</v>
+        <v>0.2000000000000028</v>
       </c>
       <c r="CO19" t="n">
         <v>25.3</v>
@@ -10938,7 +10938,7 @@
         <v>7.1</v>
       </c>
       <c r="CW19" t="n">
-        <v>2.400000000000011</v>
+        <v>2.400000000000002</v>
       </c>
       <c r="CX19" t="n">
         <v>101.6</v>
@@ -10965,7 +10965,7 @@
         <v>20.2</v>
       </c>
       <c r="DF19" t="n">
-        <v>19.40000000000001</v>
+        <v>2.400000000000009</v>
       </c>
       <c r="DG19" t="n">
         <v>171.4</v>
@@ -10974,7 +10974,7 @@
         <v>6.4</v>
       </c>
       <c r="DI19" t="n">
-        <v>1.1</v>
+        <v>0.09999999999999898</v>
       </c>
       <c r="DJ19" t="n">
         <v>11.8</v>
@@ -10992,7 +10992,7 @@
         <v>0</v>
       </c>
       <c r="DO19" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="DP19" t="n">
         <v>29.7</v>
@@ -11001,7 +11001,7 @@
         <v>-2</v>
       </c>
       <c r="DR19" t="n">
-        <v>2.299999999999983</v>
+        <v>0.499999999999972</v>
       </c>
       <c r="DS19" t="n">
         <v>78.90000000000001</v>
@@ -11019,7 +11019,7 @@
         <v>70.59999999999999</v>
       </c>
       <c r="DX19" t="n">
-        <v>6.900000000000006</v>
+        <v>4.400000000000006</v>
       </c>
       <c r="DY19" t="n">
         <v>117</v>
@@ -11028,7 +11028,7 @@
         <v>27.9</v>
       </c>
       <c r="EA19" t="n">
-        <v>15.09999999999999</v>
+        <v>14.7</v>
       </c>
       <c r="EB19" t="n">
         <v>160.6</v>
@@ -11037,7 +11037,7 @@
         <v>18.2</v>
       </c>
       <c r="ED19" t="n">
-        <v>4.700000000000003</v>
+        <v>2.900000000000001</v>
       </c>
       <c r="EE19" t="n">
         <v>49</v>
@@ -11206,7 +11206,7 @@
         <v>39.6</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="I20" t="n">
         <v>4.2</v>
@@ -11260,7 +11260,7 @@
         <v>-14.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>25.30000000000004</v>
+        <v>19.50000000000006</v>
       </c>
       <c r="AA20" t="n">
         <v>164.2</v>
@@ -11278,7 +11278,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="n">
-        <v>24.9</v>
+        <v>6.5</v>
       </c>
       <c r="AG20" t="n">
         <v>32.7</v>
@@ -11287,7 +11287,7 @@
         <v>29.8</v>
       </c>
       <c r="AI20" t="n">
-        <v>273.9000000000001</v>
+        <v>163.2999999999997</v>
       </c>
       <c r="AJ20" t="n">
         <v>3841.7</v>
@@ -11296,7 +11296,7 @@
         <v>7.2</v>
       </c>
       <c r="AL20" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="AM20" t="n">
         <v>2.2</v>
@@ -11305,7 +11305,7 @@
         <v>22.2</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AP20" t="n">
         <v>1</v>
@@ -11314,7 +11314,7 @@
         <v>150</v>
       </c>
       <c r="AR20" t="n">
-        <v>7.1</v>
+        <v>5</v>
       </c>
       <c r="AS20" t="n">
         <v>13.2</v>
@@ -11332,7 +11332,7 @@
         <v>49.4</v>
       </c>
       <c r="AX20" t="n">
-        <v>8.000000000000002</v>
+        <v>7.700000000000003</v>
       </c>
       <c r="AY20" t="n">
         <v>5.3</v>
@@ -11368,7 +11368,7 @@
         <v>-13.4</v>
       </c>
       <c r="BJ20" t="n">
-        <v>56.80000000000007</v>
+        <v>56.20000000000005</v>
       </c>
       <c r="BK20" t="n">
         <v>656.9</v>
@@ -11377,7 +11377,7 @@
         <v>-16.6</v>
       </c>
       <c r="BM20" t="n">
-        <v>3</v>
+        <v>0.499999999999996</v>
       </c>
       <c r="BN20" t="n">
         <v>43.2</v>
@@ -11395,7 +11395,7 @@
         <v>29.8</v>
       </c>
       <c r="BS20" t="n">
-        <v>5.899999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="BT20" t="n">
         <v>60.3</v>
@@ -11422,7 +11422,7 @@
         <v>-7.6</v>
       </c>
       <c r="CB20" t="n">
-        <v>23.59999999999999</v>
+        <v>9.89999999999997</v>
       </c>
       <c r="CC20" t="n">
         <v>214.1</v>
@@ -11431,7 +11431,7 @@
         <v>10.6</v>
       </c>
       <c r="CE20" t="n">
-        <v>27.1</v>
+        <v>25</v>
       </c>
       <c r="CF20" t="n">
         <v>31</v>
@@ -11440,7 +11440,7 @@
         <v>-2.2</v>
       </c>
       <c r="CH20" t="n">
-        <v>55.90000000000001</v>
+        <v>50.70000000000002</v>
       </c>
       <c r="CI20" t="n">
         <v>95.3</v>
@@ -11485,7 +11485,7 @@
         <v>30.8</v>
       </c>
       <c r="CW20" t="n">
-        <v>9.699999999999989</v>
+        <v>7.299999999999978</v>
       </c>
       <c r="CX20" t="n">
         <v>115</v>
@@ -11494,7 +11494,7 @@
         <v>15.7</v>
       </c>
       <c r="CZ20" t="n">
-        <v>9.1</v>
+        <v>7.299999999999999</v>
       </c>
       <c r="DA20" t="n">
         <v>33.9</v>
@@ -11503,7 +11503,7 @@
         <v>67.8</v>
       </c>
       <c r="DC20" t="n">
-        <v>2.399999999999999</v>
+        <v>0.899999999999999</v>
       </c>
       <c r="DD20" t="n">
         <v>69.90000000000001</v>
@@ -11530,7 +11530,7 @@
         <v>-3.6</v>
       </c>
       <c r="DL20" t="n">
-        <v>32.7</v>
+        <v>31.2</v>
       </c>
       <c r="DM20" t="n">
         <v>37.3</v>
@@ -11539,7 +11539,7 @@
         <v>1.9</v>
       </c>
       <c r="DO20" t="n">
-        <v>1.199999999999999</v>
+        <v>0.1999999999999991</v>
       </c>
       <c r="DP20" t="n">
         <v>34</v>
@@ -11557,7 +11557,7 @@
         <v>3.1</v>
       </c>
       <c r="DU20" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="DV20" t="n">
         <v>3</v>
@@ -11575,7 +11575,7 @@
         <v>23.6</v>
       </c>
       <c r="EA20" t="n">
-        <v>23.69999999999999</v>
+        <v>8.599999999999998</v>
       </c>
       <c r="EB20" t="n">
         <v>197.9</v>
@@ -11584,7 +11584,7 @@
         <v>18.1</v>
       </c>
       <c r="ED20" t="n">
-        <v>44.7</v>
+        <v>40</v>
       </c>
       <c r="EE20" t="n">
         <v>54.2</v>
@@ -11744,7 +11744,7 @@
         <v>-15.8</v>
       </c>
       <c r="E21" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
         <v>62</v>
@@ -11753,7 +11753,7 @@
         <v>33.3</v>
       </c>
       <c r="H21" t="n">
-        <v>1.6</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="I21" t="n">
         <v>4.3</v>
@@ -11771,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>3.999999999999993</v>
+        <v>1.399999999999992</v>
       </c>
       <c r="O21" t="n">
         <v>64</v>
@@ -11789,7 +11789,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="T21" t="n">
-        <v>10.09999999999999</v>
+        <v>7.599999999999989</v>
       </c>
       <c r="U21" t="n">
         <v>246.5</v>
@@ -11798,7 +11798,7 @@
         <v>50.5</v>
       </c>
       <c r="W21" t="n">
-        <v>15.1</v>
+        <v>13.2</v>
       </c>
       <c r="X21" t="n">
         <v>37.4</v>
@@ -11807,7 +11807,7 @@
         <v>-0.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>29</v>
+        <v>3.69999999999996</v>
       </c>
       <c r="AA21" t="n">
         <v>179.1</v>
@@ -11816,7 +11816,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.800000000000001</v>
+        <v>1.600000000000002</v>
       </c>
       <c r="AD21" t="n">
         <v>14.6</v>
@@ -11870,7 +11870,7 @@
         <v>-45.9</v>
       </c>
       <c r="AU21" t="n">
-        <v>4.900000000000006</v>
+        <v>2.700000000000003</v>
       </c>
       <c r="AV21" t="n">
         <v>123.2</v>
@@ -11897,7 +11897,7 @@
         <v>56.8</v>
       </c>
       <c r="BD21" t="n">
-        <v>3.199999999999996</v>
+        <v>0.5999999999999952</v>
       </c>
       <c r="BE21" t="n">
         <v>40.3</v>
@@ -11906,7 +11906,7 @@
         <v>6.1</v>
       </c>
       <c r="BG21" t="n">
-        <v>32</v>
+        <v>30.9</v>
       </c>
       <c r="BH21" t="n">
         <v>28.7</v>
@@ -11933,7 +11933,7 @@
         <v>48.1</v>
       </c>
       <c r="BP21" t="n">
-        <v>5.300000000000011</v>
+        <v>1.100000000000023</v>
       </c>
       <c r="BQ21" t="n">
         <v>207.2</v>
@@ -11951,7 +11951,7 @@
         <v>20.5</v>
       </c>
       <c r="BV21" t="n">
-        <v>46.90000000000009</v>
+        <v>30.00000000000011</v>
       </c>
       <c r="BW21" t="n">
         <v>582.8</v>
@@ -11960,7 +11960,7 @@
         <v>-5.1</v>
       </c>
       <c r="BY21" t="n">
-        <v>52.10000000000002</v>
+        <v>42.20000000000005</v>
       </c>
       <c r="BZ21" t="n">
         <v>491.1</v>
@@ -11996,7 +11996,7 @@
         <v>62.8</v>
       </c>
       <c r="CK21" t="n">
-        <v>8.700000000000001</v>
+        <v>8.600000000000001</v>
       </c>
       <c r="CL21" t="n">
         <v>0.5</v>
@@ -12005,7 +12005,7 @@
         <v>400</v>
       </c>
       <c r="CN21" t="n">
-        <v>3.299999999999998</v>
+        <v>3.199999999999997</v>
       </c>
       <c r="CO21" t="n">
         <v>27.8</v>
@@ -12014,7 +12014,7 @@
         <v>-22.1</v>
       </c>
       <c r="CQ21" t="n">
-        <v>7.200000000000014</v>
+        <v>4.000000000000018</v>
       </c>
       <c r="CR21" t="n">
         <v>42.9</v>
@@ -12023,7 +12023,7 @@
         <v>-35.1</v>
       </c>
       <c r="CT21" t="n">
-        <v>19.5</v>
+        <v>15.40000000000001</v>
       </c>
       <c r="CU21" t="n">
         <v>396.4</v>
@@ -12050,7 +12050,7 @@
         <v>46.3</v>
       </c>
       <c r="DC21" t="n">
-        <v>3.399999999999999</v>
+        <v>1</v>
       </c>
       <c r="DD21" t="n">
         <v>73.8</v>
@@ -12059,7 +12059,7 @@
         <v>25.3</v>
       </c>
       <c r="DF21" t="n">
-        <v>20.10000000000003</v>
+        <v>14.00000000000004</v>
       </c>
       <c r="DG21" t="n">
         <v>275.7</v>
@@ -12068,7 +12068,7 @@
         <v>35.4</v>
       </c>
       <c r="DI21" t="n">
-        <v>1.999999999999998</v>
+        <v>1.099999999999998</v>
       </c>
       <c r="DJ21" t="n">
         <v>14.9</v>
@@ -12086,7 +12086,7 @@
         <v>19.9</v>
       </c>
       <c r="DO21" t="n">
-        <v>5.400000000000002</v>
+        <v>4.200000000000003</v>
       </c>
       <c r="DP21" t="n">
         <v>42.1</v>
@@ -12095,7 +12095,7 @@
         <v>25.7</v>
       </c>
       <c r="DR21" t="n">
-        <v>1.600000000000009</v>
+        <v>1.400000000000006</v>
       </c>
       <c r="DS21" t="n">
         <v>103.5</v>
@@ -12113,7 +12113,7 @@
         <v>71</v>
       </c>
       <c r="DX21" t="n">
-        <v>5.100000000000009</v>
+        <v>1.600000000000025</v>
       </c>
       <c r="DY21" t="n">
         <v>131.3</v>
@@ -12282,7 +12282,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.89999999999997</v>
+        <v>4.899999999999938</v>
       </c>
       <c r="C22" t="n">
         <v>125.5</v>
@@ -12291,7 +12291,7 @@
         <v>-23.9</v>
       </c>
       <c r="E22" t="n">
-        <v>3.599999999999998</v>
+        <v>0.09999999999999787</v>
       </c>
       <c r="F22" t="n">
         <v>66.5</v>
@@ -12318,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>34.30000000000002</v>
+        <v>30.30000000000003</v>
       </c>
       <c r="O22" t="n">
         <v>80.90000000000001</v>
@@ -12327,7 +12327,7 @@
         <v>17.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>736.1999999999998</v>
+        <v>698.5999999999999</v>
       </c>
       <c r="R22" t="n">
         <v>3645.8</v>
@@ -12336,7 +12336,7 @@
         <v>9.5</v>
       </c>
       <c r="T22" t="n">
-        <v>55</v>
+        <v>44.90000000000001</v>
       </c>
       <c r="U22" t="n">
         <v>265</v>
@@ -12363,7 +12363,7 @@
         <v>7.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>5.199999999999998</v>
+        <v>3.399999999999998</v>
       </c>
       <c r="AD22" t="n">
         <v>15.1</v>
@@ -12372,7 +12372,7 @@
         <v>51</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.100000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="AG22" t="n">
         <v>35.3</v>
@@ -12381,7 +12381,7 @@
         <v>34.7</v>
       </c>
       <c r="AI22" t="n">
-        <v>846.0000000000002</v>
+        <v>741.6000000000006</v>
       </c>
       <c r="AJ22" t="n">
         <v>4607.3</v>
@@ -12390,7 +12390,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AL22" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AM22" t="n">
         <v>3.1</v>
@@ -12399,7 +12399,7 @@
         <v>47.6</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AP22" t="n">
         <v>1.6</v>
@@ -12417,7 +12417,7 @@
         <v>-29.9</v>
       </c>
       <c r="AU22" t="n">
-        <v>87.99999999999999</v>
+        <v>83.09999999999998</v>
       </c>
       <c r="AV22" t="n">
         <v>128.2</v>
@@ -12426,7 +12426,7 @@
         <v>40.6</v>
       </c>
       <c r="AX22" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AY22" t="n">
         <v>4.3</v>
@@ -12435,7 +12435,7 @@
         <v>-51.1</v>
       </c>
       <c r="BA22" t="n">
-        <v>0.7000000000000015</v>
+        <v>0.300000000000002</v>
       </c>
       <c r="BB22" t="n">
         <v>6.3</v>
@@ -12444,7 +12444,7 @@
         <v>53.7</v>
       </c>
       <c r="BD22" t="n">
-        <v>7.900000000000002</v>
+        <v>4.700000000000006</v>
       </c>
       <c r="BE22" t="n">
         <v>45.4</v>
@@ -12462,7 +12462,7 @@
         <v>-5.7</v>
       </c>
       <c r="BJ22" t="n">
-        <v>199.6000000000001</v>
+        <v>162.4000000000002</v>
       </c>
       <c r="BK22" t="n">
         <v>770.1</v>
@@ -12471,7 +12471,7 @@
         <v>-12.6</v>
       </c>
       <c r="BM22" t="n">
-        <v>32.09999999999999</v>
+        <v>31.19999999999999</v>
       </c>
       <c r="BN22" t="n">
         <v>45.4</v>
@@ -12480,7 +12480,7 @@
         <v>35.1</v>
       </c>
       <c r="BP22" t="n">
-        <v>36.59999999999999</v>
+        <v>31.29999999999998</v>
       </c>
       <c r="BQ22" t="n">
         <v>219.7</v>
@@ -12489,7 +12489,7 @@
         <v>50.9</v>
       </c>
       <c r="BS22" t="n">
-        <v>10.20000000000001</v>
+        <v>8.500000000000007</v>
       </c>
       <c r="BT22" t="n">
         <v>68.90000000000001</v>
@@ -12498,7 +12498,7 @@
         <v>27.6</v>
       </c>
       <c r="BV22" t="n">
-        <v>92.79999999999984</v>
+        <v>45.89999999999975</v>
       </c>
       <c r="BW22" t="n">
         <v>668.2</v>
@@ -12507,7 +12507,7 @@
         <v>-1.4</v>
       </c>
       <c r="BY22" t="n">
-        <v>69.40000000000001</v>
+        <v>17.29999999999998</v>
       </c>
       <c r="BZ22" t="n">
         <v>568.1</v>
@@ -12516,7 +12516,7 @@
         <v>-3.8</v>
       </c>
       <c r="CB22" t="n">
-        <v>47.19999999999999</v>
+        <v>35.89999999999998</v>
       </c>
       <c r="CC22" t="n">
         <v>243.1</v>
@@ -12525,7 +12525,7 @@
         <v>6.4</v>
       </c>
       <c r="CE22" t="n">
-        <v>3.399999999999999</v>
+        <v>2.899999999999999</v>
       </c>
       <c r="CF22" t="n">
         <v>30.8</v>
@@ -12552,7 +12552,7 @@
         <v>-92.09999999999999</v>
       </c>
       <c r="CN22" t="n">
-        <v>7.200000000000001</v>
+        <v>3.900000000000003</v>
       </c>
       <c r="CO22" t="n">
         <v>30.3</v>
@@ -12570,7 +12570,7 @@
         <v>-39.7</v>
       </c>
       <c r="CT22" t="n">
-        <v>41.19999999999999</v>
+        <v>21.69999999999999</v>
       </c>
       <c r="CU22" t="n">
         <v>420.5</v>
@@ -12579,7 +12579,7 @@
         <v>44.4</v>
       </c>
       <c r="CW22" t="n">
-        <v>20.59999999999999</v>
+        <v>16.39999999999997</v>
       </c>
       <c r="CX22" t="n">
         <v>136.4</v>
@@ -12588,7 +12588,7 @@
         <v>10.9</v>
       </c>
       <c r="CZ22" t="n">
-        <v>11.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="DA22" t="n">
         <v>51.9</v>
@@ -12597,7 +12597,7 @@
         <v>59.2</v>
       </c>
       <c r="DC22" t="n">
-        <v>17.00000000000001</v>
+        <v>13.60000000000001</v>
       </c>
       <c r="DD22" t="n">
         <v>76</v>
@@ -12624,7 +12624,7 @@
         <v>-7.8</v>
       </c>
       <c r="DL22" t="n">
-        <v>17.3</v>
+        <v>13.5</v>
       </c>
       <c r="DM22" t="n">
         <v>53.4</v>
@@ -12633,7 +12633,7 @@
         <v>40.5</v>
       </c>
       <c r="DO22" t="n">
-        <v>19.1</v>
+        <v>13.7</v>
       </c>
       <c r="DP22" t="n">
         <v>45.2</v>
@@ -12642,7 +12642,7 @@
         <v>10</v>
       </c>
       <c r="DR22" t="n">
-        <v>37.3</v>
+        <v>35.69999999999999</v>
       </c>
       <c r="DS22" t="n">
         <v>116.7</v>
@@ -12660,7 +12660,7 @@
         <v>41.9</v>
       </c>
       <c r="DX22" t="n">
-        <v>14.8</v>
+        <v>9.699999999999992</v>
       </c>
       <c r="DY22" t="n">
         <v>170</v>
@@ -12669,7 +12669,7 @@
         <v>49.3</v>
       </c>
       <c r="EA22" t="n">
-        <v>47.09999999999997</v>
+        <v>40.69999999999994</v>
       </c>
       <c r="EB22" t="n">
         <v>236</v>
@@ -12892,7 +12892,7 @@
         <v>37.4</v>
       </c>
       <c r="W23" t="n">
-        <v>1.9</v>
+        <v>0.9000000000000106</v>
       </c>
       <c r="X23" t="n">
         <v>53.6</v>
@@ -12901,7 +12901,7 @@
         <v>-26.2</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.6</v>
+        <v>7.000000000000011</v>
       </c>
       <c r="AA23" t="n">
         <v>269.7</v>
@@ -12955,7 +12955,7 @@
         <v>466.7</v>
       </c>
       <c r="AR23" t="n">
-        <v>4.8</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="AS23" t="n">
         <v>23</v>
@@ -13153,7 +13153,7 @@
         <v>10.2</v>
       </c>
       <c r="DF23" t="n">
-        <v>23.3</v>
+        <v>6.300000000000029</v>
       </c>
       <c r="DG23" t="n">
         <v>376.1</v>
@@ -13162,7 +13162,7 @@
         <v>37.8</v>
       </c>
       <c r="DI23" t="n">
-        <v>0.699999999999998</v>
+        <v>0.2999999999999939</v>
       </c>
       <c r="DJ23" t="n">
         <v>18.7</v>
@@ -13225,7 +13225,7 @@
         <v>18.1</v>
       </c>
       <c r="ED23" t="n">
-        <v>8.800000000000001</v>
+        <v>7.900000000000002</v>
       </c>
       <c r="EE23" t="n">
         <v>59.8</v>
@@ -13376,7 +13376,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>17.2</v>
+        <v>12.2</v>
       </c>
       <c r="C24" t="n">
         <v>6.5</v>
@@ -13439,7 +13439,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X24" t="n">
         <v>1.2</v>
@@ -13466,7 +13466,7 @@
         <v>85.7</v>
       </c>
       <c r="AF24" t="n">
-        <v>6.499999999999998</v>
+        <v>6.099999999999998</v>
       </c>
       <c r="AG24" t="n">
         <v>0.6</v>
@@ -13484,7 +13484,7 @@
         <v>0.3</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="AM24" t="n">
         <v>0.2</v>
@@ -13556,7 +13556,7 @@
         <v>-66.7</v>
       </c>
       <c r="BJ24" t="n">
-        <v>54.3</v>
+        <v>23.1</v>
       </c>
       <c r="BK24" t="n">
         <v>20.2</v>
@@ -13592,7 +13592,7 @@
         <v>-36.6</v>
       </c>
       <c r="BV24" t="n">
-        <v>131.1</v>
+        <v>107.1</v>
       </c>
       <c r="BW24" t="n">
         <v>32.1</v>
@@ -13601,7 +13601,7 @@
         <v>33.8</v>
       </c>
       <c r="BY24" t="n">
-        <v>132.3</v>
+        <v>118.1</v>
       </c>
       <c r="BZ24" t="n">
         <v>26.8</v>
@@ -13628,7 +13628,7 @@
         <v>-64.3</v>
       </c>
       <c r="CH24" t="n">
-        <v>7.5</v>
+        <v>7.399999999999991</v>
       </c>
       <c r="CI24" t="n">
         <v>9.6</v>
@@ -13691,7 +13691,7 @@
         <v>117.2</v>
       </c>
       <c r="DC24" t="n">
-        <v>14.3</v>
+        <v>10.1</v>
       </c>
       <c r="DD24" t="n">
         <v>6.8</v>
@@ -13709,7 +13709,7 @@
         <v>-107.3</v>
       </c>
       <c r="DI24" t="n">
-        <v>1.1</v>
+        <v>0.4000000000000021</v>
       </c>
       <c r="DJ24" t="n">
         <v>3</v>
@@ -13736,7 +13736,7 @@
         <v>17.8</v>
       </c>
       <c r="DR24" t="n">
-        <v>24.9</v>
+        <v>19.9</v>
       </c>
       <c r="DS24" t="n">
         <v>4.6</v>
@@ -13754,7 +13754,7 @@
         <v>-20</v>
       </c>
       <c r="DX24" t="n">
-        <v>31.6</v>
+        <v>19.9</v>
       </c>
       <c r="DY24" t="n">
         <v>7.5</v>
@@ -13932,7 +13932,7 @@
         <v>-36.8</v>
       </c>
       <c r="E25" t="n">
-        <v>6.899999999999999</v>
+        <v>6.099999999999999</v>
       </c>
       <c r="F25" t="n">
         <v>13.8</v>
@@ -13959,7 +13959,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>11.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O25" t="n">
         <v>21.3</v>
@@ -13968,7 +13968,7 @@
         <v>195.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>313.3</v>
+        <v>206.6</v>
       </c>
       <c r="R25" t="n">
         <v>561.8</v>
@@ -13977,7 +13977,7 @@
         <v>-6.7</v>
       </c>
       <c r="T25" t="n">
-        <v>9.399999999999999</v>
+        <v>3.799999999999997</v>
       </c>
       <c r="U25" t="n">
         <v>46</v>
@@ -13986,7 +13986,7 @@
         <v>50.3</v>
       </c>
       <c r="W25" t="n">
-        <v>3.700000000000002</v>
+        <v>1.700000000000002</v>
       </c>
       <c r="X25" t="n">
         <v>3.5</v>
@@ -14004,7 +14004,7 @@
         <v>63.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AD25" t="n">
         <v>1.8</v>
@@ -14022,7 +14022,7 @@
         <v>-83.59999999999999</v>
       </c>
       <c r="AI25" t="n">
-        <v>378.4999999999999</v>
+        <v>141.3999999999999</v>
       </c>
       <c r="AJ25" t="n">
         <v>705.6</v>
@@ -14049,7 +14049,7 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.899999999999999</v>
+        <v>0.9999999999999987</v>
       </c>
       <c r="AS25" t="n">
         <v>1.9</v>
@@ -14067,7 +14067,7 @@
         <v>77.40000000000001</v>
       </c>
       <c r="AX25" t="n">
-        <v>0.5999999999999999</v>
+        <v>0.4999999999999998</v>
       </c>
       <c r="AY25" t="n">
         <v>3</v>
@@ -14076,7 +14076,7 @@
         <v>66.7</v>
       </c>
       <c r="BA25" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="BB25" t="n">
         <v>6.2</v>
@@ -14112,7 +14112,7 @@
         <v>-71.7</v>
       </c>
       <c r="BM25" t="n">
-        <v>1.9</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN25" t="n">
         <v>1</v>
@@ -14130,7 +14130,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="BS25" t="n">
-        <v>0.3999999999999968</v>
+        <v>0.2999999999999954</v>
       </c>
       <c r="BT25" t="n">
         <v>8.9</v>
@@ -14184,7 +14184,7 @@
         <v>30.9</v>
       </c>
       <c r="CK25" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="CL25" t="n">
         <v>0</v>
@@ -14202,7 +14202,7 @@
         <v>-30.8</v>
       </c>
       <c r="CQ25" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="CR25" t="n">
         <v>6.8</v>
@@ -14292,7 +14292,7 @@
         <v>-69.59999999999999</v>
       </c>
       <c r="DU25" t="n">
-        <v>0.3</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="DV25" t="n">
         <v>1.5</v>
@@ -14310,7 +14310,7 @@
         <v>-90</v>
       </c>
       <c r="EA25" t="n">
-        <v>30.3</v>
+        <v>18.9</v>
       </c>
       <c r="EB25" t="n">
         <v>35</v>
@@ -14524,7 +14524,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="T26" t="n">
-        <v>18.3</v>
+        <v>8.900000000000002</v>
       </c>
       <c r="U26" t="n">
         <v>64.59999999999999</v>
@@ -14542,7 +14542,7 @@
         <v>-26.9</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.6</v>
+        <v>8.400000000000002</v>
       </c>
       <c r="AA26" t="n">
         <v>67.09999999999999</v>
@@ -14560,7 +14560,7 @@
         <v>6.7</v>
       </c>
       <c r="AF26" t="n">
-        <v>6.499999999999999</v>
+        <v>5.199999999999999</v>
       </c>
       <c r="AG26" t="n">
         <v>2.6</v>
@@ -14587,7 +14587,7 @@
         <v>-41.7</v>
       </c>
       <c r="AO26" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AP26" t="n">
         <v>0.4</v>
@@ -14605,7 +14605,7 @@
         <v>-74.09999999999999</v>
       </c>
       <c r="AU26" t="n">
-        <v>34.6</v>
+        <v>28.7</v>
       </c>
       <c r="AV26" t="n">
         <v>47.5</v>
@@ -14632,7 +14632,7 @@
         <v>520</v>
       </c>
       <c r="BD26" t="n">
-        <v>2.800000000000001</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="BE26" t="n">
         <v>13.1</v>
@@ -14641,7 +14641,7 @@
         <v>0</v>
       </c>
       <c r="BG26" t="n">
-        <v>1.999999999999999</v>
+        <v>1.299999999999997</v>
       </c>
       <c r="BH26" t="n">
         <v>3.8</v>
@@ -14650,7 +14650,7 @@
         <v>-38.7</v>
       </c>
       <c r="BJ26" t="n">
-        <v>51.99999999999999</v>
+        <v>15.79999999999999</v>
       </c>
       <c r="BK26" t="n">
         <v>140.5</v>
@@ -14668,7 +14668,7 @@
         <v>-73</v>
       </c>
       <c r="BP26" t="n">
-        <v>5.100000000000001</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="BQ26" t="n">
         <v>60.2</v>
@@ -14677,7 +14677,7 @@
         <v>19.4</v>
       </c>
       <c r="BS26" t="n">
-        <v>4.900000000000002</v>
+        <v>4.500000000000005</v>
       </c>
       <c r="BT26" t="n">
         <v>14.4</v>
@@ -14704,7 +14704,7 @@
         <v>-22.6</v>
       </c>
       <c r="CB26" t="n">
-        <v>17.7</v>
+        <v>12.5</v>
       </c>
       <c r="CC26" t="n">
         <v>81.90000000000001</v>
@@ -14731,7 +14731,7 @@
         <v>-15.7</v>
       </c>
       <c r="CK26" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="CL26" t="n">
         <v>-0.2</v>
@@ -14740,7 +14740,7 @@
         <v>100</v>
       </c>
       <c r="CN26" t="n">
-        <v>6.199999999999999</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="CO26" t="n">
         <v>10.3</v>
@@ -14749,7 +14749,7 @@
         <v>9.6</v>
       </c>
       <c r="CQ26" t="n">
-        <v>7.700000000000001</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="CR26" t="n">
         <v>8.199999999999999</v>
@@ -14767,7 +14767,7 @@
         <v>49.6</v>
       </c>
       <c r="CW26" t="n">
-        <v>4.199999999999999</v>
+        <v>3.199999999999999</v>
       </c>
       <c r="CX26" t="n">
         <v>49</v>
@@ -14776,7 +14776,7 @@
         <v>42.9</v>
       </c>
       <c r="CZ26" t="n">
-        <v>1</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="DA26" t="n">
         <v>11.2</v>
@@ -14785,7 +14785,7 @@
         <v>107.4</v>
       </c>
       <c r="DC26" t="n">
-        <v>3.600000000000005</v>
+        <v>0.4000000000000061</v>
       </c>
       <c r="DD26" t="n">
         <v>25.3</v>
@@ -14821,7 +14821,7 @@
         <v>-4.4</v>
       </c>
       <c r="DO26" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="DP26" t="n">
         <v>34</v>
@@ -14839,7 +14839,7 @@
         <v>19</v>
       </c>
       <c r="DU26" t="n">
-        <v>1.2</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="DV26" t="n">
         <v>1.9</v>
@@ -14866,7 +14866,7 @@
         <v>-21.1</v>
       </c>
       <c r="ED26" t="n">
-        <v>3.800000000000001</v>
+        <v>2</v>
       </c>
       <c r="EE26" t="n">
         <v>28.2</v>
@@ -15017,7 +15017,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16.5</v>
+        <v>9.000000000000004</v>
       </c>
       <c r="C27" t="n">
         <v>60.7</v>
@@ -15026,7 +15026,7 @@
         <v>13</v>
       </c>
       <c r="E27" t="n">
-        <v>24.7</v>
+        <v>20.5</v>
       </c>
       <c r="F27" t="n">
         <v>32.5</v>
@@ -15053,7 +15053,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>17.7</v>
+        <v>10.9</v>
       </c>
       <c r="O27" t="n">
         <v>46.8</v>
@@ -15062,7 +15062,7 @@
         <v>72.09999999999999</v>
       </c>
       <c r="Q27" t="n">
-        <v>294.2999999999998</v>
+        <v>196.0999999999997</v>
       </c>
       <c r="R27" t="n">
         <v>1692.3</v>
@@ -15071,7 +15071,7 @@
         <v>27.5</v>
       </c>
       <c r="T27" t="n">
-        <v>37.79999999999998</v>
+        <v>19.49999999999998</v>
       </c>
       <c r="U27" t="n">
         <v>110</v>
@@ -15080,7 +15080,7 @@
         <v>5.9</v>
       </c>
       <c r="W27" t="n">
-        <v>2.700000000000001</v>
+        <v>0.600000000000001</v>
       </c>
       <c r="X27" t="n">
         <v>11.6</v>
@@ -15098,7 +15098,7 @@
         <v>63.1</v>
       </c>
       <c r="AC27" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="AD27" t="n">
         <v>7.5</v>
@@ -15116,7 +15116,7 @@
         <v>-73.8</v>
       </c>
       <c r="AI27" t="n">
-        <v>439.4000000000001</v>
+        <v>344.9999999999999</v>
       </c>
       <c r="AJ27" t="n">
         <v>2057.7</v>
@@ -15161,7 +15161,7 @@
         <v>-38.4</v>
       </c>
       <c r="AX27" t="n">
-        <v>0.7</v>
+        <v>0.2999999999999999</v>
       </c>
       <c r="AY27" t="n">
         <v>4.4</v>
@@ -15170,7 +15170,7 @@
         <v>300</v>
       </c>
       <c r="BA27" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.2999999999999999</v>
       </c>
       <c r="BB27" t="n">
         <v>10</v>
@@ -15179,7 +15179,7 @@
         <v>488.2</v>
       </c>
       <c r="BD27" t="n">
-        <v>6.6</v>
+        <v>3.799999999999998</v>
       </c>
       <c r="BE27" t="n">
         <v>28.9</v>
@@ -15188,7 +15188,7 @@
         <v>81.8</v>
       </c>
       <c r="BG27" t="n">
-        <v>2.600000000000002</v>
+        <v>0.600000000000003</v>
       </c>
       <c r="BH27" t="n">
         <v>8.4</v>
@@ -15197,7 +15197,7 @@
         <v>2.4</v>
       </c>
       <c r="BJ27" t="n">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="BK27" t="n">
         <v>289</v>
@@ -15206,7 +15206,7 @@
         <v>19.9</v>
       </c>
       <c r="BM27" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="BN27" t="n">
         <v>1.8</v>
@@ -15215,7 +15215,7 @@
         <v>-55</v>
       </c>
       <c r="BP27" t="n">
-        <v>17.59999999999999</v>
+        <v>12.49999999999999</v>
       </c>
       <c r="BQ27" t="n">
         <v>97.2</v>
@@ -15224,7 +15224,7 @@
         <v>26.7</v>
       </c>
       <c r="BS27" t="n">
-        <v>8.5</v>
+        <v>3.599999999999998</v>
       </c>
       <c r="BT27" t="n">
         <v>29.6</v>
@@ -15233,7 +15233,7 @@
         <v>-14</v>
       </c>
       <c r="BV27" t="n">
-        <v>113.4</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="BW27" t="n">
         <v>226.1</v>
@@ -15242,7 +15242,7 @@
         <v>-7.1</v>
       </c>
       <c r="BY27" t="n">
-        <v>114.8</v>
+        <v>101.5</v>
       </c>
       <c r="BZ27" t="n">
         <v>188.1</v>
@@ -15260,7 +15260,7 @@
         <v>58</v>
       </c>
       <c r="CE27" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="CF27" t="n">
         <v>1.8</v>
@@ -15269,7 +15269,7 @@
         <v>-25</v>
       </c>
       <c r="CH27" t="n">
-        <v>5.599999999999991</v>
+        <v>3.399999999999992</v>
       </c>
       <c r="CI27" t="n">
         <v>46.5</v>
@@ -15305,7 +15305,7 @@
         <v>-16.7</v>
       </c>
       <c r="CT27" t="n">
-        <v>10.5</v>
+        <v>3.700000000000014</v>
       </c>
       <c r="CU27" t="n">
         <v>353.1</v>
@@ -15314,7 +15314,7 @@
         <v>183.4</v>
       </c>
       <c r="CW27" t="n">
-        <v>8.600000000000001</v>
+        <v>4.400000000000002</v>
       </c>
       <c r="CX27" t="n">
         <v>63.2</v>
@@ -15323,7 +15323,7 @@
         <v>23.9</v>
       </c>
       <c r="CZ27" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="DA27" t="n">
         <v>15.7</v>
@@ -15332,7 +15332,7 @@
         <v>145.3</v>
       </c>
       <c r="DC27" t="n">
-        <v>12.9</v>
+        <v>9.299999999999995</v>
       </c>
       <c r="DD27" t="n">
         <v>29.7</v>
@@ -15341,7 +15341,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="DF27" t="n">
-        <v>31.59999999999999</v>
+        <v>26.59999999999999</v>
       </c>
       <c r="DG27" t="n">
         <v>139.2</v>
@@ -15350,7 +15350,7 @@
         <v>28.5</v>
       </c>
       <c r="DI27" t="n">
-        <v>1.900000000000001</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="DJ27" t="n">
         <v>8.800000000000001</v>
@@ -15359,7 +15359,7 @@
         <v>44.3</v>
       </c>
       <c r="DL27" t="n">
-        <v>4</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="DM27" t="n">
         <v>26.7</v>
@@ -15368,7 +15368,7 @@
         <v>21.4</v>
       </c>
       <c r="DO27" t="n">
-        <v>3.199999999999999</v>
+        <v>0.1999999999999988</v>
       </c>
       <c r="DP27" t="n">
         <v>39.9</v>
@@ -15377,7 +15377,7 @@
         <v>149.4</v>
       </c>
       <c r="DR27" t="n">
-        <v>7.099999999999998</v>
+        <v>0.899999999999995</v>
       </c>
       <c r="DS27" t="n">
         <v>73.3</v>
@@ -15386,7 +15386,7 @@
         <v>31.6</v>
       </c>
       <c r="DU27" t="n">
-        <v>9.9</v>
+        <v>8.700000000000001</v>
       </c>
       <c r="DV27" t="n">
         <v>2.4</v>
@@ -15395,7 +15395,7 @@
         <v>-17.2</v>
       </c>
       <c r="DX27" t="n">
-        <v>12.5</v>
+        <v>7.700000000000003</v>
       </c>
       <c r="DY27" t="n">
         <v>27.1</v>
@@ -15627,7 +15627,7 @@
         <v>11.2</v>
       </c>
       <c r="W28" t="n">
-        <v>3.399999999999999</v>
+        <v>0.699999999999998</v>
       </c>
       <c r="X28" t="n">
         <v>27.5</v>
@@ -15636,7 +15636,7 @@
         <v>35.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>11.60000000000001</v>
+        <v>9.900000000000011</v>
       </c>
       <c r="AA28" t="n">
         <v>161.3</v>
@@ -15672,7 +15672,7 @@
         <v>22.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AM28" t="n">
         <v>4</v>
@@ -15681,7 +15681,7 @@
         <v>185.7</v>
       </c>
       <c r="AO28" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AP28" t="n">
         <v>0.9</v>
@@ -15708,7 +15708,7 @@
         <v>-24.6</v>
       </c>
       <c r="AX28" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="AY28" t="n">
         <v>11.8</v>
@@ -15744,7 +15744,7 @@
         <v>19.5</v>
       </c>
       <c r="BJ28" t="n">
-        <v>230.4</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="BK28" t="n">
         <v>508.9</v>
@@ -15798,7 +15798,7 @@
         <v>-6</v>
       </c>
       <c r="CB28" t="n">
-        <v>31.90000000000001</v>
+        <v>17.40000000000001</v>
       </c>
       <c r="CC28" t="n">
         <v>186.6</v>
@@ -15807,7 +15807,7 @@
         <v>68.90000000000001</v>
       </c>
       <c r="CE28" t="n">
-        <v>6.1</v>
+        <v>4.899999999999999</v>
       </c>
       <c r="CF28" t="n">
         <v>3.1</v>
@@ -15843,7 +15843,7 @@
         <v>15.6</v>
       </c>
       <c r="CQ28" t="n">
-        <v>7.600000000000001</v>
+        <v>0.8000000000000025</v>
       </c>
       <c r="CR28" t="n">
         <v>32.3</v>
@@ -15852,7 +15852,7 @@
         <v>-7.2</v>
       </c>
       <c r="CT28" t="n">
-        <v>38.10000000000002</v>
+        <v>27.60000000000002</v>
       </c>
       <c r="CU28" t="n">
         <v>497</v>
@@ -15861,7 +15861,7 @@
         <v>195.5</v>
       </c>
       <c r="CW28" t="n">
-        <v>12.5</v>
+        <v>3.899999999999999</v>
       </c>
       <c r="CX28" t="n">
         <v>89.8</v>
@@ -15951,7 +15951,7 @@
         <v>-33.6</v>
       </c>
       <c r="EA28" t="n">
-        <v>18.79999999999998</v>
+        <v>18.19999999999997</v>
       </c>
       <c r="EB28" t="n">
         <v>141.9</v>
@@ -16129,7 +16129,7 @@
         <v>22.9</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="I29" t="n">
         <v>1.9</v>
@@ -16147,7 +16147,7 @@
         <v>33.3</v>
       </c>
       <c r="N29" t="n">
-        <v>4.799999999999997</v>
+        <v>3.299999999999997</v>
       </c>
       <c r="O29" t="n">
         <v>93.40000000000001</v>
@@ -16201,7 +16201,7 @@
         <v>15.7</v>
       </c>
       <c r="AF29" t="n">
-        <v>6.800000000000001</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="AG29" t="n">
         <v>13.9</v>
@@ -16255,7 +16255,7 @@
         <v>-28.7</v>
       </c>
       <c r="AX29" t="n">
-        <v>2.4</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="AY29" t="n">
         <v>13.9</v>
@@ -16264,7 +16264,7 @@
         <v>113.8</v>
       </c>
       <c r="BA29" t="n">
-        <v>0.4000000000000004</v>
+        <v>4.996003610813204e-16</v>
       </c>
       <c r="BB29" t="n">
         <v>10</v>
@@ -16282,7 +16282,7 @@
         <v>96.90000000000001</v>
       </c>
       <c r="BG29" t="n">
-        <v>2.699999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="BH29" t="n">
         <v>22.7</v>
@@ -16354,7 +16354,7 @@
         <v>27.7</v>
       </c>
       <c r="CE29" t="n">
-        <v>16.5</v>
+        <v>10.4</v>
       </c>
       <c r="CF29" t="n">
         <v>37.7</v>
@@ -16372,7 +16372,7 @@
         <v>-7.5</v>
       </c>
       <c r="CK29" t="n">
-        <v>7.1</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="CL29" t="n">
         <v>7.5</v>
@@ -16417,7 +16417,7 @@
         <v>11.4</v>
       </c>
       <c r="CZ29" t="n">
-        <v>10.7</v>
+        <v>9.399999999999999</v>
       </c>
       <c r="DA29" t="n">
         <v>22.2</v>
@@ -16462,7 +16462,7 @@
         <v>14.8</v>
       </c>
       <c r="DO29" t="n">
-        <v>2.399999999999999</v>
+        <v>2.199999999999996</v>
       </c>
       <c r="DP29" t="n">
         <v>59.4</v>
@@ -16480,7 +16480,7 @@
         <v>52.2</v>
       </c>
       <c r="DU29" t="n">
-        <v>0.3000000000000007</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="DV29" t="n">
         <v>8</v>
@@ -16667,7 +16667,7 @@
         <v>32</v>
       </c>
       <c r="E30" t="n">
-        <v>8.200000000000001</v>
+        <v>5.800000000000002</v>
       </c>
       <c r="F30" t="n">
         <v>60.4</v>
@@ -16703,7 +16703,7 @@
         <v>71.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>100.7000000000003</v>
+        <v>37.50000000000068</v>
       </c>
       <c r="R30" t="n">
         <v>3386</v>
@@ -16721,7 +16721,7 @@
         <v>-7.4</v>
       </c>
       <c r="W30" t="n">
-        <v>3.7</v>
+        <v>1.599999999999999</v>
       </c>
       <c r="X30" t="n">
         <v>45.8</v>
@@ -16730,7 +16730,7 @@
         <v>77.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>15.09999999999999</v>
+        <v>6.700000000000001</v>
       </c>
       <c r="AA30" t="n">
         <v>204</v>
@@ -16757,7 +16757,7 @@
         <v>-54.8</v>
       </c>
       <c r="AI30" t="n">
-        <v>237.6000000000004</v>
+        <v>172.6000000000004</v>
       </c>
       <c r="AJ30" t="n">
         <v>4160.2</v>
@@ -16784,7 +16784,7 @@
         <v>0</v>
       </c>
       <c r="AR30" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="AS30" t="n">
         <v>13.6</v>
@@ -16793,7 +16793,7 @@
         <v>-3.5</v>
       </c>
       <c r="AU30" t="n">
-        <v>3.400000000000002</v>
+        <v>2.200000000000013</v>
       </c>
       <c r="AV30" t="n">
         <v>58.4</v>
@@ -16811,7 +16811,7 @@
         <v>140</v>
       </c>
       <c r="BA30" t="n">
-        <v>0.6999999999999997</v>
+        <v>0.2999999999999993</v>
       </c>
       <c r="BB30" t="n">
         <v>10.2</v>
@@ -16820,7 +16820,7 @@
         <v>183.3</v>
       </c>
       <c r="BD30" t="n">
-        <v>2.499999999999997</v>
+        <v>0.8999999999999959</v>
       </c>
       <c r="BE30" t="n">
         <v>61.9</v>
@@ -16829,7 +16829,7 @@
         <v>101</v>
       </c>
       <c r="BG30" t="n">
-        <v>3.2</v>
+        <v>0.5000000000000013</v>
       </c>
       <c r="BH30" t="n">
         <v>32.3</v>
@@ -16856,7 +16856,7 @@
         <v>-4.2</v>
       </c>
       <c r="BP30" t="n">
-        <v>31.19999999999999</v>
+        <v>25.49999999999997</v>
       </c>
       <c r="BQ30" t="n">
         <v>209.2</v>
@@ -16874,7 +16874,7 @@
         <v>-7</v>
       </c>
       <c r="BV30" t="n">
-        <v>102.4</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="BW30" t="n">
         <v>475.2</v>
@@ -16883,7 +16883,7 @@
         <v>7.1</v>
       </c>
       <c r="BY30" t="n">
-        <v>96.89999999999999</v>
+        <v>89.49999999999996</v>
       </c>
       <c r="BZ30" t="n">
         <v>391.3</v>
@@ -16892,7 +16892,7 @@
         <v>6.6</v>
       </c>
       <c r="CB30" t="n">
-        <v>27.20000000000002</v>
+        <v>15.10000000000003</v>
       </c>
       <c r="CC30" t="n">
         <v>207</v>
@@ -16910,7 +16910,7 @@
         <v>11.5</v>
       </c>
       <c r="CH30" t="n">
-        <v>10.09999999999998</v>
+        <v>4.999999999999971</v>
       </c>
       <c r="CI30" t="n">
         <v>71.2</v>
@@ -16919,7 +16919,7 @@
         <v>-13.6</v>
       </c>
       <c r="CK30" t="n">
-        <v>7.3</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="CL30" t="n">
         <v>7.7</v>
@@ -16928,7 +16928,7 @@
         <v>5.5</v>
       </c>
       <c r="CN30" t="n">
-        <v>1.299999999999998</v>
+        <v>0.6999999999999966</v>
       </c>
       <c r="CO30" t="n">
         <v>33.2</v>
@@ -16946,7 +16946,7 @@
         <v>-21.3</v>
       </c>
       <c r="CT30" t="n">
-        <v>35.19999999999999</v>
+        <v>30.80000000000001</v>
       </c>
       <c r="CU30" t="n">
         <v>592</v>
@@ -16964,7 +16964,7 @@
         <v>13.8</v>
       </c>
       <c r="CZ30" t="n">
-        <v>21.4</v>
+        <v>10.7</v>
       </c>
       <c r="DA30" t="n">
         <v>25.9</v>
@@ -16982,7 +16982,7 @@
         <v>3.8</v>
       </c>
       <c r="DF30" t="n">
-        <v>34.5</v>
+        <v>9.599999999999991</v>
       </c>
       <c r="DG30" t="n">
         <v>299</v>
@@ -16991,7 +16991,7 @@
         <v>33.1</v>
       </c>
       <c r="DI30" t="n">
-        <v>1.6</v>
+        <v>1.399999999999998</v>
       </c>
       <c r="DJ30" t="n">
         <v>14</v>
@@ -17018,7 +17018,7 @@
         <v>149.2</v>
       </c>
       <c r="DR30" t="n">
-        <v>18</v>
+        <v>14.8</v>
       </c>
       <c r="DS30" t="n">
         <v>130.1</v>
@@ -17045,7 +17045,7 @@
         <v>-15.6</v>
       </c>
       <c r="EA30" t="n">
-        <v>15.89999999999998</v>
+        <v>13.09999999999994</v>
       </c>
       <c r="EB30" t="n">
         <v>159.8</v>
@@ -17223,7 +17223,7 @@
         <v>15.2</v>
       </c>
       <c r="H31" t="n">
-        <v>1.6</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="I31" t="n">
         <v>2.4</v>
@@ -17241,7 +17241,7 @@
         <v>33.3</v>
       </c>
       <c r="N31" t="n">
-        <v>55.5</v>
+        <v>50.7</v>
       </c>
       <c r="O31" t="n">
         <v>125.2</v>
@@ -17250,7 +17250,7 @@
         <v>94.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.2000000000003</v>
+        <v>165.5</v>
       </c>
       <c r="R31" t="n">
         <v>3777.1</v>
@@ -17286,7 +17286,7 @@
         <v>29.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.299999999999999</v>
+        <v>0.9999999999999982</v>
       </c>
       <c r="AD31" t="n">
         <v>21.2</v>
@@ -17304,7 +17304,7 @@
         <v>-51.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>309.6999999999998</v>
+        <v>72.09999999999943</v>
       </c>
       <c r="AJ31" t="n">
         <v>4690.7</v>
@@ -17322,7 +17322,7 @@
         <v>20</v>
       </c>
       <c r="AO31" t="n">
-        <v>0.8</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="AP31" t="n">
         <v>1.3</v>
@@ -17340,7 +17340,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AU31" t="n">
-        <v>3.799999999999997</v>
+        <v>0.399999999999995</v>
       </c>
       <c r="AV31" t="n">
         <v>68.40000000000001</v>
@@ -17349,7 +17349,7 @@
         <v>-44.7</v>
       </c>
       <c r="AX31" t="n">
-        <v>5.600000000000001</v>
+        <v>5.000000000000002</v>
       </c>
       <c r="AY31" t="n">
         <v>13.2</v>
@@ -17358,7 +17358,7 @@
         <v>100</v>
       </c>
       <c r="BA31" t="n">
-        <v>0.8000000000000007</v>
+        <v>0.100000000000001</v>
       </c>
       <c r="BB31" t="n">
         <v>10.3</v>
@@ -17367,7 +17367,7 @@
         <v>102</v>
       </c>
       <c r="BD31" t="n">
-        <v>3.899999999999999</v>
+        <v>1.400000000000002</v>
       </c>
       <c r="BE31" t="n">
         <v>64.59999999999999</v>
@@ -17385,7 +17385,7 @@
         <v>36.1</v>
       </c>
       <c r="BJ31" t="n">
-        <v>59.60000000000002</v>
+        <v>55.00000000000011</v>
       </c>
       <c r="BK31" t="n">
         <v>854</v>
@@ -17412,7 +17412,7 @@
         <v>12</v>
       </c>
       <c r="BS31" t="n">
-        <v>2.800000000000004</v>
+        <v>0.5000000000000067</v>
       </c>
       <c r="BT31" t="n">
         <v>55</v>
@@ -17448,7 +17448,7 @@
         <v>34.3</v>
       </c>
       <c r="CE31" t="n">
-        <v>30.1</v>
+        <v>23.6</v>
       </c>
       <c r="CF31" t="n">
         <v>40</v>
@@ -17493,7 +17493,7 @@
         <v>-13.1</v>
       </c>
       <c r="CT31" t="n">
-        <v>71.69999999999999</v>
+        <v>36.5</v>
       </c>
       <c r="CU31" t="n">
         <v>653.2</v>
@@ -17502,7 +17502,7 @@
         <v>100.1</v>
       </c>
       <c r="CW31" t="n">
-        <v>12.80000000000001</v>
+        <v>5.900000000000022</v>
       </c>
       <c r="CX31" t="n">
         <v>124.1</v>
@@ -17520,7 +17520,7 @@
         <v>-5.7</v>
       </c>
       <c r="DC31" t="n">
-        <v>3.299999999999997</v>
+        <v>2.400000000000006</v>
       </c>
       <c r="DD31" t="n">
         <v>77</v>
@@ -17547,7 +17547,7 @@
         <v>14.9</v>
       </c>
       <c r="DL31" t="n">
-        <v>1.899999999999992</v>
+        <v>1.899999999999985</v>
       </c>
       <c r="DM31" t="n">
         <v>24.1</v>
@@ -17556,7 +17556,7 @@
         <v>-36.7</v>
       </c>
       <c r="DO31" t="n">
-        <v>3.300000000000004</v>
+        <v>1.000000000000004</v>
       </c>
       <c r="DP31" t="n">
         <v>66.09999999999999</v>
@@ -17574,7 +17574,7 @@
         <v>61.2</v>
       </c>
       <c r="DU31" t="n">
-        <v>0.5</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="DV31" t="n">
         <v>9.9</v>
@@ -17592,7 +17592,7 @@
         <v>-16</v>
       </c>
       <c r="EA31" t="n">
-        <v>20.19999999999999</v>
+        <v>4.300000000000008</v>
       </c>
       <c r="EB31" t="n">
         <v>137.3</v>
@@ -17601,7 +17601,7 @@
         <v>-33.3</v>
       </c>
       <c r="ED31" t="n">
-        <v>4.300000000000004</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="EE31" t="n">
         <v>73</v>
@@ -17761,7 +17761,7 @@
         <v>33.2</v>
       </c>
       <c r="E32" t="n">
-        <v>2.399999999999992</v>
+        <v>0.2999999999999909</v>
       </c>
       <c r="F32" t="n">
         <v>74</v>
@@ -17806,7 +17806,7 @@
         <v>29.8</v>
       </c>
       <c r="T32" t="n">
-        <v>15.09999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="U32" t="n">
         <v>238.6</v>
@@ -17815,7 +17815,7 @@
         <v>-0.2</v>
       </c>
       <c r="W32" t="n">
-        <v>1.200000000000003</v>
+        <v>0.100000000000005</v>
       </c>
       <c r="X32" t="n">
         <v>55.6</v>
@@ -17824,7 +17824,7 @@
         <v>44.4</v>
       </c>
       <c r="Z32" t="n">
-        <v>13</v>
+        <v>2.099999999999991</v>
       </c>
       <c r="AA32" t="n">
         <v>243.1</v>
@@ -17842,7 +17842,7 @@
         <v>52.7</v>
       </c>
       <c r="AF32" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AG32" t="n">
         <v>17</v>
@@ -17878,7 +17878,7 @@
         <v>33.3</v>
       </c>
       <c r="AR32" t="n">
-        <v>5.399999999999999</v>
+        <v>4.899999999999999</v>
       </c>
       <c r="AS32" t="n">
         <v>19.1</v>
@@ -17887,7 +17887,7 @@
         <v>38.4</v>
       </c>
       <c r="AU32" t="n">
-        <v>4.500000000000014</v>
+        <v>0.7000000000000171</v>
       </c>
       <c r="AV32" t="n">
         <v>63</v>
@@ -17896,7 +17896,7 @@
         <v>-50.6</v>
       </c>
       <c r="AX32" t="n">
-        <v>6.2</v>
+        <v>0.5999999999999988</v>
       </c>
       <c r="AY32" t="n">
         <v>13.3</v>
@@ -17923,7 +17923,7 @@
         <v>91</v>
       </c>
       <c r="BG32" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="BH32" t="n">
         <v>40.4</v>
@@ -17959,7 +17959,7 @@
         <v>6.2</v>
       </c>
       <c r="BS32" t="n">
-        <v>3.099999999999987</v>
+        <v>0.2999999999999834</v>
       </c>
       <c r="BT32" t="n">
         <v>58.5</v>
@@ -17968,7 +17968,7 @@
         <v>-11.6</v>
       </c>
       <c r="BV32" t="n">
-        <v>64.99999999999989</v>
+        <v>48.29999999999984</v>
       </c>
       <c r="BW32" t="n">
         <v>631.8</v>
@@ -17977,7 +17977,7 @@
         <v>6.4</v>
       </c>
       <c r="BY32" t="n">
-        <v>60.49999999999994</v>
+        <v>47.69999999999993</v>
       </c>
       <c r="BZ32" t="n">
         <v>532.9</v>
@@ -18004,7 +18004,7 @@
         <v>34.6</v>
       </c>
       <c r="CH32" t="n">
-        <v>93.39999999999999</v>
+        <v>90.49999999999999</v>
       </c>
       <c r="CI32" t="n">
         <v>110.9</v>
@@ -18022,7 +18022,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="CN32" t="n">
-        <v>2.300000000000004</v>
+        <v>1.900000000000005</v>
       </c>
       <c r="CO32" t="n">
         <v>41.5</v>
@@ -18031,7 +18031,7 @@
         <v>54.3</v>
       </c>
       <c r="CQ32" t="n">
-        <v>2.699999999999996</v>
+        <v>1.499999999999993</v>
       </c>
       <c r="CR32" t="n">
         <v>43.8</v>
@@ -18085,7 +18085,7 @@
         <v>17.1</v>
       </c>
       <c r="DI32" t="n">
-        <v>1.700000000000001</v>
+        <v>1.100000000000002</v>
       </c>
       <c r="DJ32" t="n">
         <v>17.5</v>
@@ -18094,7 +18094,7 @@
         <v>12.2</v>
       </c>
       <c r="DL32" t="n">
-        <v>8.000000000000004</v>
+        <v>6.100000000000012</v>
       </c>
       <c r="DM32" t="n">
         <v>32.2</v>
@@ -18112,7 +18112,7 @@
         <v>88.3</v>
       </c>
       <c r="DR32" t="n">
-        <v>8.400000000000006</v>
+        <v>3.800000000000011</v>
       </c>
       <c r="DS32" t="n">
         <v>172.3</v>
@@ -18130,7 +18130,7 @@
         <v>-13</v>
       </c>
       <c r="DX32" t="n">
-        <v>29.69999999999998</v>
+        <v>25.39999999999997</v>
       </c>
       <c r="DY32" t="n">
         <v>143</v>
@@ -18299,7 +18299,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>22.70000000000001</v>
+        <v>19.70000000000001</v>
       </c>
       <c r="C33" t="n">
         <v>153.5</v>
@@ -18308,7 +18308,7 @@
         <v>26.9</v>
       </c>
       <c r="E33" t="n">
-        <v>18.90000000000002</v>
+        <v>16.50000000000003</v>
       </c>
       <c r="F33" t="n">
         <v>82.90000000000001</v>
@@ -18317,7 +18317,7 @@
         <v>23.5</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4000000000000004</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="I33" t="n">
         <v>2.6</v>
@@ -18344,7 +18344,7 @@
         <v>92.2</v>
       </c>
       <c r="Q33" t="n">
-        <v>743.0000000000002</v>
+        <v>675.9000000000008</v>
       </c>
       <c r="R33" t="n">
         <v>4551.3</v>
@@ -18353,7 +18353,7 @@
         <v>26.7</v>
       </c>
       <c r="T33" t="n">
-        <v>44.00000000000003</v>
+        <v>28.90000000000004</v>
       </c>
       <c r="U33" t="n">
         <v>278.6</v>
@@ -18362,7 +18362,7 @@
         <v>5.4</v>
       </c>
       <c r="W33" t="n">
-        <v>8.100000000000001</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="X33" t="n">
         <v>47.7</v>
@@ -18371,7 +18371,7 @@
         <v>2.4</v>
       </c>
       <c r="Z33" t="n">
-        <v>34.19999999999996</v>
+        <v>21.19999999999996</v>
       </c>
       <c r="AA33" t="n">
         <v>254.4</v>
@@ -18380,7 +18380,7 @@
         <v>22.1</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.299999999999999</v>
+        <v>7.999999999999998</v>
       </c>
       <c r="AD33" t="n">
         <v>24.2</v>
@@ -18389,7 +18389,7 @@
         <v>62.4</v>
       </c>
       <c r="AF33" t="n">
-        <v>8.199999999999999</v>
+        <v>6.699999999999999</v>
       </c>
       <c r="AG33" t="n">
         <v>26.7</v>
@@ -18398,7 +18398,7 @@
         <v>-24.8</v>
       </c>
       <c r="AI33" t="n">
-        <v>869.6999999999996</v>
+        <v>737.299999999999</v>
       </c>
       <c r="AJ33" t="n">
         <v>5629.5</v>
@@ -18407,7 +18407,7 @@
         <v>22.3</v>
       </c>
       <c r="AL33" t="n">
-        <v>0.5</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="AM33" t="n">
         <v>4.4</v>
@@ -18434,7 +18434,7 @@
         <v>28.4</v>
       </c>
       <c r="AU33" t="n">
-        <v>13.59999999999997</v>
+        <v>9.099999999999955</v>
       </c>
       <c r="AV33" t="n">
         <v>52.9</v>
@@ -18452,7 +18452,7 @@
         <v>211.3</v>
       </c>
       <c r="BA33" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="BB33" t="n">
         <v>11</v>
@@ -18461,7 +18461,7 @@
         <v>71.90000000000001</v>
       </c>
       <c r="BD33" t="n">
-        <v>32.59999999999999</v>
+        <v>31.19999999999998</v>
       </c>
       <c r="BE33" t="n">
         <v>80.59999999999999</v>
@@ -18470,7 +18470,7 @@
         <v>82.8</v>
       </c>
       <c r="BG33" t="n">
-        <v>6.600000000000001</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="BH33" t="n">
         <v>45.8</v>
@@ -18479,7 +18479,7 @@
         <v>50.7</v>
       </c>
       <c r="BJ33" t="n">
-        <v>92.60000000000014</v>
+        <v>88.9000000000002</v>
       </c>
       <c r="BK33" t="n">
         <v>1028.9</v>
@@ -18488,7 +18488,7 @@
         <v>42.1</v>
       </c>
       <c r="BM33" t="n">
-        <v>31.2</v>
+        <v>30.6</v>
       </c>
       <c r="BN33" t="n">
         <v>42</v>
@@ -18497,7 +18497,7 @@
         <v>-7.5</v>
       </c>
       <c r="BP33" t="n">
-        <v>30.59999999999997</v>
+        <v>30.39999999999993</v>
       </c>
       <c r="BQ33" t="n">
         <v>262.1</v>
@@ -18506,7 +18506,7 @@
         <v>2.3</v>
       </c>
       <c r="BS33" t="n">
-        <v>4.20000000000002</v>
+        <v>1.100000000000033</v>
       </c>
       <c r="BT33" t="n">
         <v>66.8</v>
@@ -18515,7 +18515,7 @@
         <v>-7.4</v>
       </c>
       <c r="BV33" t="n">
-        <v>85.20000000000016</v>
+        <v>20.20000000000027</v>
       </c>
       <c r="BW33" t="n">
         <v>691.8</v>
@@ -18524,7 +18524,7 @@
         <v>2.4</v>
       </c>
       <c r="BY33" t="n">
-        <v>74.40000000000003</v>
+        <v>13.90000000000009</v>
       </c>
       <c r="BZ33" t="n">
         <v>579.2</v>
@@ -18533,7 +18533,7 @@
         <v>1.1</v>
       </c>
       <c r="CB33" t="n">
-        <v>53.09999999999999</v>
+        <v>51.09999999999999</v>
       </c>
       <c r="CC33" t="n">
         <v>335.1</v>
@@ -18542,7 +18542,7 @@
         <v>50.3</v>
       </c>
       <c r="CE33" t="n">
-        <v>2.5</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="CF33" t="n">
         <v>40.9</v>
@@ -18560,7 +18560,7 @@
         <v>12.3</v>
       </c>
       <c r="CK33" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="CL33" t="n">
         <v>8.699999999999999</v>
@@ -18569,7 +18569,7 @@
         <v>14.5</v>
       </c>
       <c r="CN33" t="n">
-        <v>7.099999999999994</v>
+        <v>4.79999999999999</v>
       </c>
       <c r="CO33" t="n">
         <v>48.7</v>
@@ -18578,7 +18578,7 @@
         <v>64.5</v>
       </c>
       <c r="CQ33" t="n">
-        <v>5.399999999999999</v>
+        <v>2.700000000000002</v>
       </c>
       <c r="CR33" t="n">
         <v>46.5</v>
@@ -18587,7 +18587,7 @@
         <v>-11.4</v>
       </c>
       <c r="CT33" t="n">
-        <v>210.3999999999999</v>
+        <v>192.2999999999999</v>
       </c>
       <c r="CU33" t="n">
         <v>781.1</v>
@@ -18596,7 +18596,7 @@
         <v>87.59999999999999</v>
       </c>
       <c r="CW33" t="n">
-        <v>19.90000000000004</v>
+        <v>19.40000000000007</v>
       </c>
       <c r="CX33" t="n">
         <v>154.1</v>
@@ -18605,7 +18605,7 @@
         <v>11.5</v>
       </c>
       <c r="CZ33" t="n">
-        <v>39.7</v>
+        <v>33.3</v>
       </c>
       <c r="DA33" t="n">
         <v>36.6</v>
@@ -18614,7 +18614,7 @@
         <v>-28.5</v>
       </c>
       <c r="DC33" t="n">
-        <v>13.29999999999999</v>
+        <v>11.39999999999998</v>
       </c>
       <c r="DD33" t="n">
         <v>89</v>
@@ -18623,7 +18623,7 @@
         <v>19.5</v>
       </c>
       <c r="DF33" t="n">
-        <v>41.50000000000006</v>
+        <v>41.2000000000001</v>
       </c>
       <c r="DG33" t="n">
         <v>386.5</v>
@@ -18641,7 +18641,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="DL33" t="n">
-        <v>8.600000000000001</v>
+        <v>0.5999999999999979</v>
       </c>
       <c r="DM33" t="n">
         <v>38.5</v>
@@ -18650,7 +18650,7 @@
         <v>-28</v>
       </c>
       <c r="DO33" t="n">
-        <v>27.2</v>
+        <v>24.2</v>
       </c>
       <c r="DP33" t="n">
         <v>80.5</v>
@@ -18659,7 +18659,7 @@
         <v>97.8</v>
       </c>
       <c r="DR33" t="n">
-        <v>9.800000000000001</v>
+        <v>1.399999999999995</v>
       </c>
       <c r="DS33" t="n">
         <v>185.5</v>
@@ -18686,7 +18686,7 @@
         <v>-10.3</v>
       </c>
       <c r="EA33" t="n">
-        <v>70.70000000000002</v>
+        <v>58.20000000000002</v>
       </c>
       <c r="EB33" t="n">
         <v>166.8</v>
@@ -18695,7 +18695,7 @@
         <v>-35.5</v>
       </c>
       <c r="ED33" t="n">
-        <v>6.900000000000002</v>
+        <v>3.600000000000005</v>
       </c>
       <c r="EE33" t="n">
         <v>80.5</v>
@@ -18981,7 +18981,7 @@
         <v>55.6</v>
       </c>
       <c r="AU34" t="n">
-        <v>20.5</v>
+        <v>6.900000000000031</v>
       </c>
       <c r="AV34" t="n">
         <v>82.2</v>
@@ -19053,7 +19053,7 @@
         <v>3.7</v>
       </c>
       <c r="BS34" t="n">
-        <v>4.8</v>
+        <v>0.5999999999999801</v>
       </c>
       <c r="BT34" t="n">
         <v>79.5</v>
@@ -19143,7 +19143,7 @@
         <v>39.6</v>
       </c>
       <c r="CW34" t="n">
-        <v>23.6</v>
+        <v>3.69999999999996</v>
       </c>
       <c r="CX34" t="n">
         <v>185.3</v>
@@ -19179,7 +19179,7 @@
         <v>16.9</v>
       </c>
       <c r="DI34" t="n">
-        <v>0.8000000000000012</v>
+        <v>0.1000000000000032</v>
       </c>
       <c r="DJ34" t="n">
         <v>19.7</v>
@@ -19215,7 +19215,7 @@
         <v>59.5</v>
       </c>
       <c r="DU34" t="n">
-        <v>0.5</v>
+        <v>0.4000000000000021</v>
       </c>
       <c r="DV34" t="n">
         <v>18.2</v>
@@ -19447,7 +19447,7 @@
         <v>146.7</v>
       </c>
       <c r="T35" t="n">
-        <v>21.9</v>
+        <v>10.1</v>
       </c>
       <c r="U35" t="n">
         <v>46.2</v>
@@ -19456,7 +19456,7 @@
         <v>291.5</v>
       </c>
       <c r="W35" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="X35" t="n">
         <v>2.6</v>
@@ -19465,7 +19465,7 @@
         <v>333.3</v>
       </c>
       <c r="Z35" t="n">
-        <v>31.70000000000001</v>
+        <v>21.00000000000001</v>
       </c>
       <c r="AA35" t="n">
         <v>33.4</v>
@@ -19510,7 +19510,7 @@
         <v>-400</v>
       </c>
       <c r="AO35" t="n">
-        <v>0.1</v>
+        <v>0.09999999999999987</v>
       </c>
       <c r="AP35" t="n">
         <v>0.2</v>
@@ -19519,7 +19519,7 @@
         <v>100</v>
       </c>
       <c r="AR35" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="AS35" t="n">
         <v>2</v>
@@ -19546,7 +19546,7 @@
         <v>-81.8</v>
       </c>
       <c r="BA35" t="n">
-        <v>3.400000000000001</v>
+        <v>2.000000000000001</v>
       </c>
       <c r="BB35" t="n">
         <v>-3.3</v>
@@ -19555,7 +19555,7 @@
         <v>-335.7</v>
       </c>
       <c r="BD35" t="n">
-        <v>7.5</v>
+        <v>5.9</v>
       </c>
       <c r="BE35" t="n">
         <v>4.3</v>
@@ -19573,7 +19573,7 @@
         <v>222.2</v>
       </c>
       <c r="BJ35" t="n">
-        <v>51.2</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="BK35" t="n">
         <v>112.9</v>
@@ -19609,7 +19609,7 @@
         <v>52.1</v>
       </c>
       <c r="BV35" t="n">
-        <v>56.40000000000001</v>
+        <v>23.90000000000001</v>
       </c>
       <c r="BW35" t="n">
         <v>62.6</v>
@@ -19618,7 +19618,7 @@
         <v>92.59999999999999</v>
       </c>
       <c r="BY35" t="n">
-        <v>56.10000000000001</v>
+        <v>29.30000000000001</v>
       </c>
       <c r="BZ35" t="n">
         <v>52.4</v>
@@ -19663,7 +19663,7 @@
         <v>0</v>
       </c>
       <c r="CN35" t="n">
-        <v>2.799999999999999</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="CO35" t="n">
         <v>3.4</v>
@@ -19717,7 +19717,7 @@
         <v>-39.4</v>
       </c>
       <c r="DF35" t="n">
-        <v>24.8</v>
+        <v>26.3</v>
       </c>
       <c r="DG35" t="n">
         <v>24.8</v>
@@ -19726,7 +19726,7 @@
         <v>-1753.3</v>
       </c>
       <c r="DI35" t="n">
-        <v>1.3</v>
+        <v>0.4999999999999989</v>
       </c>
       <c r="DJ35" t="n">
         <v>2.2</v>
@@ -19789,7 +19789,7 @@
         <v>269.7</v>
       </c>
       <c r="ED35" t="n">
-        <v>19.1</v>
+        <v>32.8</v>
       </c>
       <c r="EE35" t="n">
         <v>10.2</v>
@@ -19949,7 +19949,7 @@
         <v>215.4</v>
       </c>
       <c r="E36" t="n">
-        <v>7.399999999999999</v>
+        <v>3.599999999999997</v>
       </c>
       <c r="F36" t="n">
         <v>6.6</v>
@@ -19976,7 +19976,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>10.4</v>
+        <v>3.299999999999999</v>
       </c>
       <c r="O36" t="n">
         <v>12.8</v>
@@ -19985,7 +19985,7 @@
         <v>-39.9</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.6</v>
+        <v>136.6</v>
       </c>
       <c r="R36" t="n">
         <v>897.7</v>
@@ -20021,7 +20021,7 @@
         <v>0.2</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AD36" t="n">
         <v>2.5</v>
@@ -20030,7 +20030,7 @@
         <v>31.6</v>
       </c>
       <c r="AF36" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AG36" t="n">
         <v>3.6</v>
@@ -20039,7 +20039,7 @@
         <v>200</v>
       </c>
       <c r="AI36" t="n">
-        <v>215.0000000000001</v>
+        <v>42.80000000000013</v>
       </c>
       <c r="AJ36" t="n">
         <v>1068.5</v>
@@ -20057,7 +20057,7 @@
         <v>-183.3</v>
       </c>
       <c r="AO36" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AP36" t="n">
         <v>0.2</v>
@@ -20075,7 +20075,7 @@
         <v>304.8</v>
       </c>
       <c r="AU36" t="n">
-        <v>5.300000000000001</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="AV36" t="n">
         <v>5.3</v>
@@ -20111,7 +20111,7 @@
         <v>-3.7</v>
       </c>
       <c r="BG36" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="BH36" t="n">
         <v>4.5</v>
@@ -20120,7 +20120,7 @@
         <v>87.5</v>
       </c>
       <c r="BJ36" t="n">
-        <v>183.1</v>
+        <v>131.9</v>
       </c>
       <c r="BK36" t="n">
         <v>153</v>
@@ -20174,7 +20174,7 @@
         <v>-4.5</v>
       </c>
       <c r="CB36" t="n">
-        <v>35</v>
+        <v>19.8</v>
       </c>
       <c r="CC36" t="n">
         <v>58.9</v>
@@ -20183,7 +20183,7 @@
         <v>93.09999999999999</v>
       </c>
       <c r="CE36" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.09999999999999992</v>
       </c>
       <c r="CF36" t="n">
         <v>0.2</v>
@@ -20210,7 +20210,7 @@
         <v>0</v>
       </c>
       <c r="CN36" t="n">
-        <v>4</v>
+        <v>1.200000000000001</v>
       </c>
       <c r="CO36" t="n">
         <v>3.4</v>
@@ -20246,7 +20246,7 @@
         <v>-29.7</v>
       </c>
       <c r="CZ36" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="DA36" t="n">
         <v>22.8</v>
@@ -20255,7 +20255,7 @@
         <v>185</v>
       </c>
       <c r="DC36" t="n">
-        <v>10.5</v>
+        <v>6.5</v>
       </c>
       <c r="DD36" t="n">
         <v>7.4</v>
@@ -20264,7 +20264,7 @@
         <v>-30.2</v>
       </c>
       <c r="DF36" t="n">
-        <v>33.60000000000001</v>
+        <v>8.800000000000008</v>
       </c>
       <c r="DG36" t="n">
         <v>43.7</v>
@@ -20282,7 +20282,7 @@
         <v>-24.4</v>
       </c>
       <c r="DL36" t="n">
-        <v>9.299999999999999</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="DM36" t="n">
         <v>13.5</v>
@@ -20291,7 +20291,7 @@
         <v>170</v>
       </c>
       <c r="DO36" t="n">
-        <v>10.6</v>
+        <v>6.700000000000001</v>
       </c>
       <c r="DP36" t="n">
         <v>15.2</v>
@@ -20300,7 +20300,7 @@
         <v>4.8</v>
       </c>
       <c r="DR36" t="n">
-        <v>40.5</v>
+        <v>38.3</v>
       </c>
       <c r="DS36" t="n">
         <v>21.5</v>
@@ -20318,7 +20318,7 @@
         <v>55.6</v>
       </c>
       <c r="DX36" t="n">
-        <v>8.199999999999999</v>
+        <v>2.399999999999999</v>
       </c>
       <c r="DY36" t="n">
         <v>45.2</v>
@@ -20336,7 +20336,7 @@
         <v>160.1</v>
       </c>
       <c r="ED36" t="n">
-        <v>31.1</v>
+        <v>12</v>
       </c>
       <c r="EE36" t="n">
         <v>11.7</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>18.7</v>
+        <v>17.9</v>
       </c>
       <c r="C37" t="n">
         <v>91.3</v>
@@ -20523,7 +20523,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>17.40000000000001</v>
+        <v>7.000000000000009</v>
       </c>
       <c r="O37" t="n">
         <v>23.2</v>
@@ -20532,7 +20532,7 @@
         <v>-40.2</v>
       </c>
       <c r="Q37" t="n">
-        <v>341.3000000000001</v>
+        <v>113.7000000000001</v>
       </c>
       <c r="R37" t="n">
         <v>1337.8</v>
@@ -20541,7 +20541,7 @@
         <v>32.5</v>
       </c>
       <c r="T37" t="n">
-        <v>25.19999999999998</v>
+        <v>5.799999999999972</v>
       </c>
       <c r="U37" t="n">
         <v>182.3</v>
@@ -20550,7 +20550,7 @@
         <v>180.9</v>
       </c>
       <c r="W37" t="n">
-        <v>2.100000000000001</v>
+        <v>1.800000000000002</v>
       </c>
       <c r="X37" t="n">
         <v>12.5</v>
@@ -20559,7 +20559,7 @@
         <v>145.1</v>
       </c>
       <c r="Z37" t="n">
-        <v>39.79999999999998</v>
+        <v>25.99999999999998</v>
       </c>
       <c r="AA37" t="n">
         <v>96.2</v>
@@ -20568,7 +20568,7 @@
         <v>43.8</v>
       </c>
       <c r="AC37" t="n">
-        <v>3.700000000000002</v>
+        <v>2.800000000000002</v>
       </c>
       <c r="AD37" t="n">
         <v>6</v>
@@ -20586,7 +20586,7 @@
         <v>63</v>
       </c>
       <c r="AI37" t="n">
-        <v>358.4</v>
+        <v>143.3999999999999</v>
       </c>
       <c r="AJ37" t="n">
         <v>1576.2</v>
@@ -20595,7 +20595,7 @@
         <v>25.8</v>
       </c>
       <c r="AL37" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AM37" t="n">
         <v>0.2</v>
@@ -20613,7 +20613,7 @@
         <v>-50</v>
       </c>
       <c r="AR37" t="n">
-        <v>3.900000000000002</v>
+        <v>3.700000000000002</v>
       </c>
       <c r="AS37" t="n">
         <v>9</v>
@@ -20649,7 +20649,7 @@
         <v>-130.1</v>
       </c>
       <c r="BD37" t="n">
-        <v>12.6</v>
+        <v>10.3</v>
       </c>
       <c r="BE37" t="n">
         <v>13.7</v>
@@ -20658,7 +20658,7 @@
         <v>5.4</v>
       </c>
       <c r="BG37" t="n">
-        <v>3.299999999999999</v>
+        <v>1.799999999999999</v>
       </c>
       <c r="BH37" t="n">
         <v>9.5</v>
@@ -20685,7 +20685,7 @@
         <v>80</v>
       </c>
       <c r="BP37" t="n">
-        <v>26.8</v>
+        <v>23.9</v>
       </c>
       <c r="BQ37" t="n">
         <v>38.6</v>
@@ -20694,7 +20694,7 @@
         <v>-15.4</v>
       </c>
       <c r="BS37" t="n">
-        <v>10.1</v>
+        <v>8.799999999999997</v>
       </c>
       <c r="BT37" t="n">
         <v>26.2</v>
@@ -20721,7 +20721,7 @@
         <v>-6.8</v>
       </c>
       <c r="CB37" t="n">
-        <v>41.09999999999999</v>
+        <v>6.099999999999987</v>
       </c>
       <c r="CC37" t="n">
         <v>87.8</v>
@@ -20739,7 +20739,7 @@
         <v>-53.3</v>
       </c>
       <c r="CH37" t="n">
-        <v>15.4</v>
+        <v>13.4</v>
       </c>
       <c r="CI37" t="n">
         <v>39.1</v>
@@ -20748,7 +20748,7 @@
         <v>34.4</v>
       </c>
       <c r="CK37" t="n">
-        <v>0.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="CL37" t="n">
         <v>1.5</v>
@@ -20766,7 +20766,7 @@
         <v>-45.8</v>
       </c>
       <c r="CQ37" t="n">
-        <v>7.299999999999999</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="CR37" t="n">
         <v>18.3</v>
@@ -20775,7 +20775,7 @@
         <v>120.5</v>
       </c>
       <c r="CT37" t="n">
-        <v>179.7</v>
+        <v>143.2</v>
       </c>
       <c r="CU37" t="n">
         <v>156.9</v>
@@ -20784,7 +20784,7 @@
         <v>16</v>
       </c>
       <c r="CW37" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="CX37" t="n">
         <v>57.8</v>
@@ -20793,7 +20793,7 @@
         <v>18</v>
       </c>
       <c r="CZ37" t="n">
-        <v>4.300000000000001</v>
+        <v>1.500000000000001</v>
       </c>
       <c r="DA37" t="n">
         <v>25.4</v>
@@ -20811,7 +20811,7 @@
         <v>15.1</v>
       </c>
       <c r="DF37" t="n">
-        <v>53.3</v>
+        <v>19.69999999999999</v>
       </c>
       <c r="DG37" t="n">
         <v>67.40000000000001</v>
@@ -20820,7 +20820,7 @@
         <v>-14.4</v>
       </c>
       <c r="DI37" t="n">
-        <v>2.1</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="DJ37" t="n">
         <v>4.5</v>
@@ -20874,7 +20874,7 @@
         <v>202.5</v>
       </c>
       <c r="EA37" t="n">
-        <v>12.8</v>
+        <v>11.2</v>
       </c>
       <c r="EB37" t="n">
         <v>102</v>
@@ -21034,7 +21034,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>20.3</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="C38" t="n">
         <v>121.9</v>
@@ -21043,7 +21043,7 @@
         <v>96.3</v>
       </c>
       <c r="E38" t="n">
-        <v>16.1</v>
+        <v>8.900000000000002</v>
       </c>
       <c r="F38" t="n">
         <v>39.1</v>
@@ -21052,7 +21052,7 @@
         <v>20.7</v>
       </c>
       <c r="H38" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>-0.5</v>
@@ -21079,7 +21079,7 @@
         <v>-47.3</v>
       </c>
       <c r="Q38" t="n">
-        <v>820.9000000000001</v>
+        <v>479.6</v>
       </c>
       <c r="R38" t="n">
         <v>2093.9</v>
@@ -21097,7 +21097,7 @@
         <v>115.7</v>
       </c>
       <c r="W38" t="n">
-        <v>18.8</v>
+        <v>16.7</v>
       </c>
       <c r="X38" t="n">
         <v>28.8</v>
@@ -21124,7 +21124,7 @@
         <v>16.7</v>
       </c>
       <c r="AF38" t="n">
-        <v>7.200000000000001</v>
+        <v>7.100000000000001</v>
       </c>
       <c r="AG38" t="n">
         <v>12.7</v>
@@ -21142,7 +21142,7 @@
         <v>9</v>
       </c>
       <c r="AL38" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AM38" t="n">
         <v>0.7</v>
@@ -21160,7 +21160,7 @@
         <v>33.3</v>
       </c>
       <c r="AR38" t="n">
-        <v>4.1</v>
+        <v>0.1999999999999975</v>
       </c>
       <c r="AS38" t="n">
         <v>10</v>
@@ -21169,7 +21169,7 @@
         <v>56.3</v>
       </c>
       <c r="AU38" t="n">
-        <v>15.2</v>
+        <v>10.4</v>
       </c>
       <c r="AV38" t="n">
         <v>23.9</v>
@@ -21178,7 +21178,7 @@
         <v>-40.3</v>
       </c>
       <c r="AX38" t="n">
-        <v>7.100000000000001</v>
+        <v>6.900000000000001</v>
       </c>
       <c r="AY38" t="n">
         <v>9.6</v>
@@ -21214,7 +21214,7 @@
         <v>41.4</v>
       </c>
       <c r="BJ38" t="n">
-        <v>119.7</v>
+        <v>9.900000000000006</v>
       </c>
       <c r="BK38" t="n">
         <v>512.5</v>
@@ -21223,7 +21223,7 @@
         <v>7.7</v>
       </c>
       <c r="BM38" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="BN38" t="n">
         <v>4</v>
@@ -21250,7 +21250,7 @@
         <v>13.4</v>
       </c>
       <c r="BV38" t="n">
-        <v>73.09999999999999</v>
+        <v>52.19999999999999</v>
       </c>
       <c r="BW38" t="n">
         <v>223.3</v>
@@ -21259,7 +21259,7 @@
         <v>-1.8</v>
       </c>
       <c r="BY38" t="n">
-        <v>77.90000000000001</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="BZ38" t="n">
         <v>176.2</v>
@@ -21277,7 +21277,7 @@
         <v>-5.7</v>
       </c>
       <c r="CE38" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="CF38" t="n">
         <v>0.7</v>
@@ -21295,7 +21295,7 @@
         <v>4.9</v>
       </c>
       <c r="CK38" t="n">
-        <v>1.1</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="CL38" t="n">
         <v>10.4</v>
@@ -21304,7 +21304,7 @@
         <v>0</v>
       </c>
       <c r="CN38" t="n">
-        <v>9.699999999999999</v>
+        <v>7.299999999999999</v>
       </c>
       <c r="CO38" t="n">
         <v>10.5</v>
@@ -21349,7 +21349,7 @@
         <v>103</v>
       </c>
       <c r="DC38" t="n">
-        <v>20.7</v>
+        <v>16.4</v>
       </c>
       <c r="DD38" t="n">
         <v>39.3</v>
@@ -21376,7 +21376,7 @@
         <v>-44.4</v>
       </c>
       <c r="DL38" t="n">
-        <v>5</v>
+        <v>4.299999999999999</v>
       </c>
       <c r="DM38" t="n">
         <v>37.3</v>
@@ -21385,7 +21385,7 @@
         <v>32.7</v>
       </c>
       <c r="DO38" t="n">
-        <v>7.399999999999995</v>
+        <v>1.499999999999989</v>
       </c>
       <c r="DP38" t="n">
         <v>31.2</v>
@@ -21403,7 +21403,7 @@
         <v>-29.3</v>
       </c>
       <c r="DU38" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="DV38" t="n">
         <v>2.1</v>
@@ -21412,7 +21412,7 @@
         <v>75</v>
       </c>
       <c r="DX38" t="n">
-        <v>32.69999999999999</v>
+        <v>24.89999999999999</v>
       </c>
       <c r="DY38" t="n">
         <v>64.8</v>
@@ -21421,7 +21421,7 @@
         <v>134.8</v>
       </c>
       <c r="EA38" t="n">
-        <v>65.59999999999999</v>
+        <v>52.8</v>
       </c>
       <c r="EB38" t="n">
         <v>111.2</v>
@@ -21581,7 +21581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>62</v>
+        <v>41.7</v>
       </c>
       <c r="C39" t="n">
         <v>169.4</v>
@@ -21635,7 +21635,7 @@
         <v>9.1</v>
       </c>
       <c r="T39" t="n">
-        <v>17.19999999999999</v>
+        <v>10.89999999999996</v>
       </c>
       <c r="U39" t="n">
         <v>284.2</v>
@@ -21680,7 +21680,7 @@
         <v>19.1</v>
       </c>
       <c r="AI39" t="n">
-        <v>621.5999999999999</v>
+        <v>568.3</v>
       </c>
       <c r="AJ39" t="n">
         <v>3630</v>
@@ -21698,7 +21698,7 @@
         <v>-14</v>
       </c>
       <c r="AO39" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AP39" t="n">
         <v>1.1</v>
@@ -21734,7 +21734,7 @@
         <v>16.8</v>
       </c>
       <c r="BA39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BB39" t="n">
         <v>4.5</v>
@@ -21770,7 +21770,7 @@
         <v>7.2</v>
       </c>
       <c r="BM39" t="n">
-        <v>15.6</v>
+        <v>12.1</v>
       </c>
       <c r="BN39" t="n">
         <v>24.3</v>
@@ -21779,7 +21779,7 @@
         <v>298.4</v>
       </c>
       <c r="BP39" t="n">
-        <v>13.89999999999998</v>
+        <v>3.799999999999962</v>
       </c>
       <c r="BQ39" t="n">
         <v>131.4</v>
@@ -21815,7 +21815,7 @@
         <v>30.9</v>
       </c>
       <c r="CB39" t="n">
-        <v>116.9</v>
+        <v>97.29999999999998</v>
       </c>
       <c r="CC39" t="n">
         <v>186.8</v>
@@ -21824,7 +21824,7 @@
         <v>2.4</v>
       </c>
       <c r="CE39" t="n">
-        <v>33.4</v>
+        <v>32.5</v>
       </c>
       <c r="CF39" t="n">
         <v>1.4</v>
@@ -21842,7 +21842,7 @@
         <v>34.1</v>
       </c>
       <c r="CK39" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="CL39" t="n">
         <v>17.5</v>
@@ -21878,7 +21878,7 @@
         <v>-40.1</v>
       </c>
       <c r="CW39" t="n">
-        <v>15.40000000000001</v>
+        <v>3.00000000000002</v>
       </c>
       <c r="CX39" t="n">
         <v>108.3</v>
@@ -21905,7 +21905,7 @@
         <v>7.5</v>
       </c>
       <c r="DF39" t="n">
-        <v>53.69999999999999</v>
+        <v>34.49999999999999</v>
       </c>
       <c r="DG39" t="n">
         <v>213.8</v>
@@ -21941,7 +21941,7 @@
         <v>-18.5</v>
       </c>
       <c r="DR39" t="n">
-        <v>10.50000000000002</v>
+        <v>9.400000000000029</v>
       </c>
       <c r="DS39" t="n">
         <v>95.09999999999999</v>
@@ -21950,7 +21950,7 @@
         <v>1.1</v>
       </c>
       <c r="DU39" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="DV39" t="n">
         <v>3.4</v>
@@ -21977,7 +21977,7 @@
         <v>27</v>
       </c>
       <c r="ED39" t="n">
-        <v>21.40000000000001</v>
+        <v>15.80000000000001</v>
       </c>
       <c r="EE39" t="n">
         <v>47.3</v>
@@ -22164,7 +22164,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>8.5</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="O40" t="n">
         <v>101.6</v>
@@ -22209,7 +22209,7 @@
         <v>48.2</v>
       </c>
       <c r="AC40" t="n">
-        <v>2.800000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="AD40" t="n">
         <v>13.7</v>
@@ -22236,7 +22236,7 @@
         <v>12.1</v>
       </c>
       <c r="AL40" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AM40" t="n">
         <v>3.6</v>
@@ -22263,7 +22263,7 @@
         <v>55.4</v>
       </c>
       <c r="AU40" t="n">
-        <v>54.8</v>
+        <v>50.7</v>
       </c>
       <c r="AV40" t="n">
         <v>48.5</v>
@@ -22299,7 +22299,7 @@
         <v>-20.7</v>
       </c>
       <c r="BG40" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BH40" t="n">
         <v>32.2</v>
@@ -22308,7 +22308,7 @@
         <v>40</v>
       </c>
       <c r="BJ40" t="n">
-        <v>111.2</v>
+        <v>10.60000000000001</v>
       </c>
       <c r="BK40" t="n">
         <v>731.6</v>
@@ -22326,7 +22326,7 @@
         <v>18.8</v>
       </c>
       <c r="BP40" t="n">
-        <v>27.50000000000003</v>
+        <v>13.60000000000005</v>
       </c>
       <c r="BQ40" t="n">
         <v>127</v>
@@ -22335,7 +22335,7 @@
         <v>-21.7</v>
       </c>
       <c r="BS40" t="n">
-        <v>3.100000000000001</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="BT40" t="n">
         <v>55.4</v>
@@ -22380,7 +22380,7 @@
         <v>-96</v>
       </c>
       <c r="CH40" t="n">
-        <v>57.09999999999999</v>
+        <v>53.79999999999998</v>
       </c>
       <c r="CI40" t="n">
         <v>94.2</v>
@@ -22407,7 +22407,7 @@
         <v>-2.1</v>
       </c>
       <c r="CQ40" t="n">
-        <v>31.3</v>
+        <v>27</v>
       </c>
       <c r="CR40" t="n">
         <v>47.6</v>
@@ -22434,7 +22434,7 @@
         <v>19.4</v>
       </c>
       <c r="CZ40" t="n">
-        <v>1.400000000000002</v>
+        <v>1.200000000000003</v>
       </c>
       <c r="DA40" t="n">
         <v>51.6</v>
@@ -22470,7 +22470,7 @@
         <v>-34.4</v>
       </c>
       <c r="DL40" t="n">
-        <v>13.6</v>
+        <v>11</v>
       </c>
       <c r="DM40" t="n">
         <v>47.3</v>
@@ -22488,7 +22488,7 @@
         <v>-4.1</v>
       </c>
       <c r="DR40" t="n">
-        <v>16.49999999999999</v>
+        <v>5.99999999999997</v>
       </c>
       <c r="DS40" t="n">
         <v>127.6</v>
@@ -22515,7 +22515,7 @@
         <v>-0.6</v>
       </c>
       <c r="EA40" t="n">
-        <v>139.1</v>
+        <v>132.4</v>
       </c>
       <c r="EB40" t="n">
         <v>199.6</v>
@@ -22684,7 +22684,7 @@
         <v>42</v>
       </c>
       <c r="E41" t="n">
-        <v>7.599999999999994</v>
+        <v>5.399999999999991</v>
       </c>
       <c r="F41" t="n">
         <v>71.7</v>
@@ -22693,7 +22693,7 @@
         <v>17.5</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2999999999999998</v>
+        <v>0.1999999999999997</v>
       </c>
       <c r="I41" t="n">
         <v>1.3</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>16.5</v>
+        <v>8</v>
       </c>
       <c r="O41" t="n">
         <v>109.8</v>
@@ -22720,7 +22720,7 @@
         <v>-4</v>
       </c>
       <c r="Q41" t="n">
-        <v>410.8000000000002</v>
+        <v>90.20000000000027</v>
       </c>
       <c r="R41" t="n">
         <v>3825.9</v>
@@ -22729,7 +22729,7 @@
         <v>8.6</v>
       </c>
       <c r="T41" t="n">
-        <v>9.800000000000022</v>
+        <v>3.40000000000002</v>
       </c>
       <c r="U41" t="n">
         <v>475.3</v>
@@ -22738,7 +22738,7 @@
         <v>136.2</v>
       </c>
       <c r="W41" t="n">
-        <v>2.399999999999999</v>
+        <v>1.799999999999998</v>
       </c>
       <c r="X41" t="n">
         <v>45.9</v>
@@ -22765,7 +22765,7 @@
         <v>-14.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>1.500000000000002</v>
+        <v>1.200000000000003</v>
       </c>
       <c r="AG41" t="n">
         <v>33.6</v>
@@ -22774,7 +22774,7 @@
         <v>136.6</v>
       </c>
       <c r="AI41" t="n">
-        <v>432.6999999999989</v>
+        <v>5.599999999998488</v>
       </c>
       <c r="AJ41" t="n">
         <v>4738.8</v>
@@ -22792,7 +22792,7 @@
         <v>35.5</v>
       </c>
       <c r="AO41" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AP41" t="n">
         <v>1.3</v>
@@ -22819,7 +22819,7 @@
         <v>4.6</v>
       </c>
       <c r="AX41" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="AY41" t="n">
         <v>19.9</v>
@@ -22837,7 +22837,7 @@
         <v>-50</v>
       </c>
       <c r="BD41" t="n">
-        <v>2.5</v>
+        <v>1.099999999999994</v>
       </c>
       <c r="BE41" t="n">
         <v>52.9</v>
@@ -22891,7 +22891,7 @@
         <v>17.5</v>
       </c>
       <c r="BV41" t="n">
-        <v>32.30000000000007</v>
+        <v>29.00000000000006</v>
       </c>
       <c r="BW41" t="n">
         <v>618.7</v>
@@ -22900,7 +22900,7 @@
         <v>28</v>
       </c>
       <c r="BY41" t="n">
-        <v>42.5</v>
+        <v>37.49999999999994</v>
       </c>
       <c r="BZ41" t="n">
         <v>512.6</v>
@@ -22909,7 +22909,7 @@
         <v>29.5</v>
       </c>
       <c r="CB41" t="n">
-        <v>32.90000000000001</v>
+        <v>9.600000000000001</v>
       </c>
       <c r="CC41" t="n">
         <v>253.7</v>
@@ -22936,7 +22936,7 @@
         <v>63</v>
       </c>
       <c r="CK41" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="CL41" t="n">
         <v>17.6</v>
@@ -22963,7 +22963,7 @@
         <v>37.9</v>
       </c>
       <c r="CT41" t="n">
-        <v>9.700000000000045</v>
+        <v>2.600000000000016</v>
       </c>
       <c r="CU41" t="n">
         <v>407.8</v>
@@ -22981,7 +22981,7 @@
         <v>20.3</v>
       </c>
       <c r="CZ41" t="n">
-        <v>4.099999999999998</v>
+        <v>2.699999999999996</v>
       </c>
       <c r="DA41" t="n">
         <v>51.6</v>
@@ -22990,7 +22990,7 @@
         <v>116.8</v>
       </c>
       <c r="DC41" t="n">
-        <v>357.8</v>
+        <v>353.2</v>
       </c>
       <c r="DD41" t="n">
         <v>77.09999999999999</v>
@@ -23008,7 +23008,7 @@
         <v>-3.1</v>
       </c>
       <c r="DI41" t="n">
-        <v>1.5</v>
+        <v>1.299999999999999</v>
       </c>
       <c r="DJ41" t="n">
         <v>10.3</v>
@@ -23071,7 +23071,7 @@
         <v>48.6</v>
       </c>
       <c r="ED41" t="n">
-        <v>13.89999999999999</v>
+        <v>11.39999999999999</v>
       </c>
       <c r="EE41" t="n">
         <v>95.90000000000001</v>
@@ -23240,7 +23240,7 @@
         <v>21.5</v>
       </c>
       <c r="H42" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="I42" t="n">
         <v>1.7</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>22</v>
+        <v>5.5</v>
       </c>
       <c r="O42" t="n">
         <v>111.2</v>
@@ -23267,7 +23267,7 @@
         <v>-20.2</v>
       </c>
       <c r="Q42" t="n">
-        <v>452.5</v>
+        <v>41.69999999999982</v>
       </c>
       <c r="R42" t="n">
         <v>4698.6</v>
@@ -23276,7 +23276,7 @@
         <v>10.5</v>
       </c>
       <c r="T42" t="n">
-        <v>31.70000000000002</v>
+        <v>21.9</v>
       </c>
       <c r="U42" t="n">
         <v>524.5</v>
@@ -23294,7 +23294,7 @@
         <v>39.9</v>
       </c>
       <c r="Z42" t="n">
-        <v>18.09999999999999</v>
+        <v>16.89999999999997</v>
       </c>
       <c r="AA42" t="n">
         <v>308.5</v>
@@ -23321,7 +23321,7 @@
         <v>119.4</v>
       </c>
       <c r="AI42" t="n">
-        <v>535.4000000000005</v>
+        <v>102.7000000000016</v>
       </c>
       <c r="AJ42" t="n">
         <v>5756.8</v>
@@ -23330,7 +23330,7 @@
         <v>11.4</v>
       </c>
       <c r="AL42" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AM42" t="n">
         <v>5.6</v>
@@ -23339,7 +23339,7 @@
         <v>75</v>
       </c>
       <c r="AO42" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="AP42" t="n">
         <v>1.1</v>
@@ -23348,7 +23348,7 @@
         <v>-15.4</v>
       </c>
       <c r="AR42" t="n">
-        <v>3.899999999999999</v>
+        <v>3.699999999999998</v>
       </c>
       <c r="AS42" t="n">
         <v>19.2</v>
@@ -23357,7 +23357,7 @@
         <v>54.8</v>
       </c>
       <c r="AU42" t="n">
-        <v>53.8</v>
+        <v>49.59999999999999</v>
       </c>
       <c r="AV42" t="n">
         <v>84.59999999999999</v>
@@ -23375,7 +23375,7 @@
         <v>89.8</v>
       </c>
       <c r="BA42" t="n">
-        <v>0.3999999999999986</v>
+        <v>0.2999999999999972</v>
       </c>
       <c r="BB42" t="n">
         <v>5.5</v>
@@ -23384,7 +23384,7 @@
         <v>-46.6</v>
       </c>
       <c r="BD42" t="n">
-        <v>7.299999999999997</v>
+        <v>4.799999999999997</v>
       </c>
       <c r="BE42" t="n">
         <v>61.8</v>
@@ -23393,7 +23393,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="BG42" t="n">
-        <v>2.199999999999996</v>
+        <v>0.4999999999999931</v>
       </c>
       <c r="BH42" t="n">
         <v>50</v>
@@ -23411,7 +23411,7 @@
         <v>-24.5</v>
       </c>
       <c r="BM42" t="n">
-        <v>37.8</v>
+        <v>34.5</v>
       </c>
       <c r="BN42" t="n">
         <v>39.2</v>
@@ -23429,7 +23429,7 @@
         <v>-27.3</v>
       </c>
       <c r="BS42" t="n">
-        <v>3.399999999999999</v>
+        <v>3</v>
       </c>
       <c r="BT42" t="n">
         <v>70.59999999999999</v>
@@ -23438,7 +23438,7 @@
         <v>27</v>
       </c>
       <c r="BV42" t="n">
-        <v>60.79999999999995</v>
+        <v>28.49999999999988</v>
       </c>
       <c r="BW42" t="n">
         <v>715.7</v>
@@ -23447,7 +23447,7 @@
         <v>24.1</v>
       </c>
       <c r="BY42" t="n">
-        <v>53.5</v>
+        <v>11</v>
       </c>
       <c r="BZ42" t="n">
         <v>595.1</v>
@@ -23465,7 +23465,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="CE42" t="n">
-        <v>0.2999999999999972</v>
+        <v>0.09999999999999443</v>
       </c>
       <c r="CF42" t="n">
         <v>44.2</v>
@@ -23492,7 +23492,7 @@
         <v>135.1</v>
       </c>
       <c r="CN42" t="n">
-        <v>3.000000000000007</v>
+        <v>0.3000000000000109</v>
       </c>
       <c r="CO42" t="n">
         <v>33.7</v>
@@ -23510,7 +23510,7 @@
         <v>27</v>
       </c>
       <c r="CT42" t="n">
-        <v>10.20000000000005</v>
+        <v>0.5000000000000053</v>
       </c>
       <c r="CU42" t="n">
         <v>459.1</v>
@@ -23528,7 +23528,7 @@
         <v>22.4</v>
       </c>
       <c r="CZ42" t="n">
-        <v>4.5</v>
+        <v>0.4000000000000021</v>
       </c>
       <c r="DA42" t="n">
         <v>63.9</v>
@@ -23573,7 +23573,7 @@
         <v>126.5</v>
       </c>
       <c r="DO42" t="n">
-        <v>0.9000000000000057</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="DP42" t="n">
         <v>67.40000000000001</v>
@@ -23591,7 +23591,7 @@
         <v>-11.3</v>
       </c>
       <c r="DU42" t="n">
-        <v>4.000000000000002</v>
+        <v>3.900000000000002</v>
       </c>
       <c r="DV42" t="n">
         <v>16.3</v>
@@ -23600,7 +23600,7 @@
         <v>98.8</v>
       </c>
       <c r="DX42" t="n">
-        <v>36.5</v>
+        <v>33.2</v>
       </c>
       <c r="DY42" t="n">
         <v>101.1</v>
@@ -23769,7 +23769,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>119.1</v>
+        <v>110.8</v>
       </c>
       <c r="C43" t="n">
         <v>248</v>
@@ -23778,7 +23778,7 @@
         <v>80.09999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>4.700000000000003</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="F43" t="n">
         <v>97.09999999999999</v>
@@ -23832,7 +23832,7 @@
         <v>121.4</v>
       </c>
       <c r="W43" t="n">
-        <v>2.600000000000001</v>
+        <v>2.200000000000003</v>
       </c>
       <c r="X43" t="n">
         <v>51.7</v>
@@ -23859,7 +23859,7 @@
         <v>-25.2</v>
       </c>
       <c r="AF43" t="n">
-        <v>8.800000000000001</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="AG43" t="n">
         <v>34.7</v>
@@ -23886,7 +23886,7 @@
         <v>34.1</v>
       </c>
       <c r="AO43" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="AP43" t="n">
         <v>1.2</v>
@@ -23913,7 +23913,7 @@
         <v>100.3</v>
       </c>
       <c r="AX43" t="n">
-        <v>5.899999999999999</v>
+        <v>5.799999999999997</v>
       </c>
       <c r="AY43" t="n">
         <v>27.6</v>
@@ -23949,7 +23949,7 @@
         <v>26.1</v>
       </c>
       <c r="BJ43" t="n">
-        <v>46.90000000000009</v>
+        <v>5.900000000000048</v>
       </c>
       <c r="BK43" t="n">
         <v>831.9</v>
@@ -23976,7 +23976,7 @@
         <v>-18</v>
       </c>
       <c r="BS43" t="n">
-        <v>4.899999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="BT43" t="n">
         <v>73.40000000000001</v>
@@ -24012,7 +24012,7 @@
         <v>4.4</v>
       </c>
       <c r="CE43" t="n">
-        <v>0.3999999999999986</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="CF43" t="n">
         <v>44.8</v>
@@ -24057,7 +24057,7 @@
         <v>29.2</v>
       </c>
       <c r="CT43" t="n">
-        <v>57.69999999999993</v>
+        <v>47.49999999999988</v>
       </c>
       <c r="CU43" t="n">
         <v>492.7</v>
@@ -24066,7 +24066,7 @@
         <v>-30.9</v>
       </c>
       <c r="CW43" t="n">
-        <v>7.4</v>
+        <v>5.200000000000021</v>
       </c>
       <c r="CX43" t="n">
         <v>171.9</v>
@@ -24102,7 +24102,7 @@
         <v>3.7</v>
       </c>
       <c r="DI43" t="n">
-        <v>1.200000000000003</v>
+        <v>0.6000000000000052</v>
       </c>
       <c r="DJ43" t="n">
         <v>11.8</v>
@@ -24111,7 +24111,7 @@
         <v>-34.1</v>
       </c>
       <c r="DL43" t="n">
-        <v>6.5</v>
+        <v>3.000000000000004</v>
       </c>
       <c r="DM43" t="n">
         <v>58.5</v>
@@ -24120,7 +24120,7 @@
         <v>77.8</v>
       </c>
       <c r="DO43" t="n">
-        <v>4.5</v>
+        <v>3.599999999999994</v>
       </c>
       <c r="DP43" t="n">
         <v>70.90000000000001</v>
@@ -24325,7 +24325,7 @@
         <v>87.8</v>
       </c>
       <c r="E44" t="n">
-        <v>15.30000000000001</v>
+        <v>10.60000000000001</v>
       </c>
       <c r="F44" t="n">
         <v>103.9</v>
@@ -24334,7 +24334,7 @@
         <v>23.5</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3999999999999994</v>
+        <v>0.09999999999999909</v>
       </c>
       <c r="I44" t="n">
         <v>3.5</v>
@@ -24352,7 +24352,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>138.3</v>
+        <v>133.1</v>
       </c>
       <c r="O44" t="n">
         <v>140.6</v>
@@ -24361,7 +24361,7 @@
         <v>-15.6</v>
       </c>
       <c r="Q44" t="n">
-        <v>796.7000000000003</v>
+        <v>467.0000000000005</v>
       </c>
       <c r="R44" t="n">
         <v>5799.2</v>
@@ -24370,7 +24370,7 @@
         <v>15.2</v>
       </c>
       <c r="T44" t="n">
-        <v>86.90000000000002</v>
+        <v>64.50000000000004</v>
       </c>
       <c r="U44" t="n">
         <v>633.3</v>
@@ -24379,7 +24379,7 @@
         <v>119.4</v>
       </c>
       <c r="W44" t="n">
-        <v>7.799999999999999</v>
+        <v>5.199999999999998</v>
       </c>
       <c r="X44" t="n">
         <v>56.4</v>
@@ -24388,7 +24388,7 @@
         <v>39.3</v>
       </c>
       <c r="Z44" t="n">
-        <v>73.49999999999997</v>
+        <v>61.59999999999997</v>
       </c>
       <c r="AA44" t="n">
         <v>409.5</v>
@@ -24397,7 +24397,7 @@
         <v>62.8</v>
       </c>
       <c r="AC44" t="n">
-        <v>5.399999999999995</v>
+        <v>4.699999999999992</v>
       </c>
       <c r="AD44" t="n">
         <v>18.3</v>
@@ -24406,7 +24406,7 @@
         <v>-24.1</v>
       </c>
       <c r="AF44" t="n">
-        <v>27.5</v>
+        <v>18.7</v>
       </c>
       <c r="AG44" t="n">
         <v>35.8</v>
@@ -24415,7 +24415,7 @@
         <v>33.6</v>
       </c>
       <c r="AI44" t="n">
-        <v>932.1000000000004</v>
+        <v>516.7000000000007</v>
       </c>
       <c r="AJ44" t="n">
         <v>7385.2</v>
@@ -24424,7 +24424,7 @@
         <v>20.7</v>
       </c>
       <c r="AL44" t="n">
-        <v>1.3</v>
+        <v>0.5000000000000002</v>
       </c>
       <c r="AM44" t="n">
         <v>7.1</v>
@@ -24442,7 +24442,7 @@
         <v>0</v>
       </c>
       <c r="AR44" t="n">
-        <v>3.199999999999996</v>
+        <v>1.499999999999995</v>
       </c>
       <c r="AS44" t="n">
         <v>28.9</v>
@@ -24469,7 +24469,7 @@
         <v>76.09999999999999</v>
       </c>
       <c r="BA44" t="n">
-        <v>4.4</v>
+        <v>4.300000000000001</v>
       </c>
       <c r="BB44" t="n">
         <v>6.9</v>
@@ -24487,7 +24487,7 @@
         <v>-17.1</v>
       </c>
       <c r="BG44" t="n">
-        <v>15.09999999999999</v>
+        <v>13.49999999999999</v>
       </c>
       <c r="BH44" t="n">
         <v>53.3</v>
@@ -24496,7 +24496,7 @@
         <v>14.6</v>
       </c>
       <c r="BJ44" t="n">
-        <v>132.9999999999998</v>
+        <v>86.09999999999971</v>
       </c>
       <c r="BK44" t="n">
         <v>945.3</v>
@@ -24505,7 +24505,7 @@
         <v>-19.4</v>
       </c>
       <c r="BM44" t="n">
-        <v>35.6</v>
+        <v>34.7</v>
       </c>
       <c r="BN44" t="n">
         <v>41.4</v>
@@ -24514,7 +24514,7 @@
         <v>-1.4</v>
       </c>
       <c r="BP44" t="n">
-        <v>69.60000000000002</v>
+        <v>67.80000000000001</v>
       </c>
       <c r="BQ44" t="n">
         <v>199</v>
@@ -24532,7 +24532,7 @@
         <v>12.9</v>
       </c>
       <c r="BV44" t="n">
-        <v>44.50000000000015</v>
+        <v>43.50000000000015</v>
       </c>
       <c r="BW44" t="n">
         <v>1188.9</v>
@@ -24550,7 +24550,7 @@
         <v>81</v>
       </c>
       <c r="CB44" t="n">
-        <v>50.60000000000002</v>
+        <v>29.70000000000004</v>
       </c>
       <c r="CC44" t="n">
         <v>326.7</v>
@@ -24568,7 +24568,7 @@
         <v>14</v>
       </c>
       <c r="CH44" t="n">
-        <v>78.59999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="CI44" t="n">
         <v>144.9</v>
@@ -24586,7 +24586,7 @@
         <v>112.4</v>
       </c>
       <c r="CN44" t="n">
-        <v>7.899999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="CO44" t="n">
         <v>41</v>
@@ -24595,7 +24595,7 @@
         <v>-14.8</v>
       </c>
       <c r="CQ44" t="n">
-        <v>5.800000000000004</v>
+        <v>5.400000000000014</v>
       </c>
       <c r="CR44" t="n">
         <v>96.5</v>
@@ -24622,7 +24622,7 @@
         <v>9.4</v>
       </c>
       <c r="CZ44" t="n">
-        <v>19.6</v>
+        <v>18.5</v>
       </c>
       <c r="DA44" t="n">
         <v>75.7</v>
@@ -24631,7 +24631,7 @@
         <v>115.7</v>
       </c>
       <c r="DC44" t="n">
-        <v>16.69999999999999</v>
+        <v>13.19999999999999</v>
       </c>
       <c r="DD44" t="n">
         <v>531.6</v>
@@ -24640,7 +24640,7 @@
         <v>20.6</v>
       </c>
       <c r="DF44" t="n">
-        <v>90.90000000000002</v>
+        <v>89.20000000000003</v>
       </c>
       <c r="DG44" t="n">
         <v>397.1</v>
@@ -24676,7 +24676,7 @@
         <v>-4.6</v>
       </c>
       <c r="DR44" t="n">
-        <v>25.30000000000002</v>
+        <v>23.80000000000005</v>
       </c>
       <c r="DS44" t="n">
         <v>224.5</v>
@@ -24685,7 +24685,7 @@
         <v>14.9</v>
       </c>
       <c r="DU44" t="n">
-        <v>3.000000000000002</v>
+        <v>2.700000000000003</v>
       </c>
       <c r="DV44" t="n">
         <v>17.5</v>
@@ -24694,7 +24694,7 @@
         <v>38.9</v>
       </c>
       <c r="DX44" t="n">
-        <v>43.5</v>
+        <v>32.5</v>
       </c>
       <c r="DY44" t="n">
         <v>111.7</v>
@@ -24703,7 +24703,7 @@
         <v>-28.4</v>
       </c>
       <c r="EA44" t="n">
-        <v>47.00000000000001</v>
+        <v>37.40000000000001</v>
       </c>
       <c r="EB44" t="n">
         <v>359.6</v>
@@ -24712,7 +24712,7 @@
         <v>150.2</v>
       </c>
       <c r="ED44" t="n">
-        <v>21.6</v>
+        <v>18.50000000000001</v>
       </c>
       <c r="EE44" t="n">
         <v>127.4</v>
